--- a/testout_top_timing_tran_fullfreq_post_termination_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_fullfreq_post_termination_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="129">
   <si>
     <t>Process</t>
   </si>
@@ -247,121 +247,127 @@
     <t>typical</t>
   </si>
   <si>
+    <t>8.00000e00</t>
+  </si>
+  <si>
+    <t>6.00000e00</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>tsmc2ff (1)</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>moshselvt_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>nmoscap_s</t>
+  </si>
+  <si>
+    <t>bip_s</t>
+  </si>
+  <si>
+    <t>dio_s</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>1.80000e01</t>
+  </si>
+  <si>
+    <t>1.60000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (2)</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>1.50000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (3)</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>2.30000e01</t>
+  </si>
+  <si>
+    <t>2.00000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (4)</t>
+  </si>
+  <si>
+    <t>1.90000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (5)</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>moshselvt_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>nmoscap_f</t>
+  </si>
+  <si>
+    <t>bip_f</t>
+  </si>
+  <si>
+    <t>dio_f</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest_t</t>
+  </si>
+  <si>
     <t>3.00000e00</t>
   </si>
   <si>
-    <t>tsmc2ff (1)</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>moshselvt_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>nmoscap_s</t>
-  </si>
-  <si>
-    <t>bip_s</t>
-  </si>
-  <si>
-    <t>dio_s</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.770</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst_t</t>
-  </si>
-  <si>
-    <t>1.50000e01</t>
-  </si>
-  <si>
-    <t>1.10000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (2)</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>7.00000e00</t>
-  </si>
-  <si>
-    <t>5.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (3)</t>
-  </si>
-  <si>
-    <t>0.690</t>
-  </si>
-  <si>
-    <t>1.60000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (4)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (5)</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>moshselvt_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>nmoscap_f</t>
-  </si>
-  <si>
-    <t>bip_f</t>
-  </si>
-  <si>
-    <t>dio_f</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest_t</t>
+    <t>tsmc2ff (6)</t>
   </si>
   <si>
     <t>1.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>0.00000e00</t>
   </si>
   <si>
     <t>tsmc2ff (7)</t>
@@ -441,13 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
+        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,530 +1035,530 @@
         <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2">
-        <v>59.301</v>
+        <v>81.27030000000001</v>
       </c>
       <c r="U2">
-        <v>57.4605</v>
+        <v>81.2574</v>
       </c>
       <c r="V2">
-        <v>58.38080000000001</v>
+        <v>81.26390000000001</v>
       </c>
       <c r="W2">
-        <v>56.4793</v>
+        <v>82.4205</v>
       </c>
       <c r="X2">
-        <v>69.813</v>
+        <v>82.4267</v>
       </c>
       <c r="Y2">
-        <v>63.1461</v>
+        <v>82.42359999999999</v>
       </c>
       <c r="Z2">
-        <v>162.314</v>
+        <v>183.917</v>
       </c>
       <c r="AA2">
-        <v>163.101</v>
-      </c>
-      <c r="AB2">
-        <v>162.707</v>
-      </c>
-      <c r="AC2">
-        <v>1.97518</v>
-      </c>
-      <c r="AD2">
-        <v>3.09028</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>32.1694</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>30.0409</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>23.4571</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>20.3152</v>
-      </c>
-      <c r="AI2">
-        <v>7.76449</v>
-      </c>
-      <c r="AJ2">
-        <v>4.96275</v>
-      </c>
-      <c r="AK2">
-        <v>5.70951</v>
-      </c>
-      <c r="AL2">
-        <v>6.11406</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>2.96675</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>3.42558</v>
-      </c>
-      <c r="AO2" s="4">
-        <v>61.5989</v>
+        <v>183.935</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>27.4007</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>26.7433</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>28.3851</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>27.8152</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>21.6246</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>21.0343</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>12.4428</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>12.7487</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>11.9741</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>12.2195</v>
+      </c>
+      <c r="AM2">
+        <v>6.22866</v>
+      </c>
+      <c r="AN2">
+        <v>6.40347</v>
+      </c>
+      <c r="AO2">
+        <v>50.0564</v>
       </c>
       <c r="AP2">
-        <v>48.1518</v>
+        <v>50.2793</v>
       </c>
       <c r="AQ2">
-        <v>50.3364</v>
+        <v>49.8237</v>
       </c>
       <c r="AR2">
-        <v>362.645</v>
+        <v>655.83</v>
       </c>
       <c r="AS2">
-        <v>337.084</v>
+        <v>87.5955</v>
       </c>
       <c r="AT2">
-        <v>342.196</v>
+        <v>201.242</v>
       </c>
       <c r="AU2">
-        <v>357.533</v>
+        <v>542.183</v>
       </c>
       <c r="AV2">
-        <v>349.864</v>
+        <v>371.713</v>
       </c>
       <c r="AW2">
-        <v>25.5604</v>
+        <v>568.235</v>
       </c>
       <c r="AX2">
-        <v>1137.57</v>
+        <v>1106.33</v>
       </c>
       <c r="AY2">
-        <v>543.961</v>
+        <v>654.7349999999999</v>
       </c>
       <c r="AZ2">
-        <v>237.842</v>
+        <v>88.2559</v>
       </c>
       <c r="BA2">
-        <v>299.066</v>
+        <v>201.552</v>
       </c>
       <c r="BB2">
-        <v>482.737</v>
+        <v>541.439</v>
       </c>
       <c r="BC2">
-        <v>390.902</v>
+        <v>371.495</v>
       </c>
       <c r="BD2">
-        <v>306.119</v>
+        <v>566.4789999999999</v>
       </c>
       <c r="BE2">
-        <v>1147.03</v>
+        <v>1107.49</v>
       </c>
       <c r="BF2">
-        <v>449.272</v>
+        <v>482.008</v>
       </c>
       <c r="BG2">
-        <v>333.287</v>
+        <v>257.52</v>
       </c>
       <c r="BH2">
-        <v>356.484</v>
+        <v>302.418</v>
       </c>
       <c r="BI2">
-        <v>426.075</v>
+        <v>437.11</v>
       </c>
       <c r="BJ2">
-        <v>391.28</v>
+        <v>369.764</v>
       </c>
       <c r="BK2">
-        <v>115.985</v>
+        <v>224.488</v>
       </c>
       <c r="BL2">
-        <v>1347.05</v>
+        <v>1208.85</v>
       </c>
     </row>
     <row r="3" spans="1:64">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3">
+        <v>89.87</v>
+      </c>
+      <c r="U3">
+        <v>89.80520000000001</v>
+      </c>
+      <c r="V3">
+        <v>89.83759999999999</v>
+      </c>
+      <c r="W3">
+        <v>91.19420000000001</v>
+      </c>
+      <c r="X3">
+        <v>91.11749999999999</v>
+      </c>
+      <c r="Y3">
+        <v>91.1559</v>
+      </c>
+      <c r="Z3">
+        <v>192.313</v>
+      </c>
+      <c r="AA3">
+        <v>192.134</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3">
-        <v>72.53620000000001</v>
-      </c>
-      <c r="U3">
-        <v>57.9209</v>
-      </c>
-      <c r="V3">
-        <v>65.2286</v>
-      </c>
-      <c r="W3">
-        <v>64.49119999999999</v>
-      </c>
-      <c r="X3">
-        <v>76.7439</v>
-      </c>
-      <c r="Y3">
-        <v>70.61750000000001</v>
-      </c>
-      <c r="Z3">
-        <v>169.759</v>
-      </c>
-      <c r="AA3">
-        <v>170.483</v>
-      </c>
-      <c r="AB3">
-        <v>170.121</v>
-      </c>
-      <c r="AC3">
-        <v>3.36233</v>
-      </c>
-      <c r="AD3">
-        <v>3.00586</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>31.0322</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>29.0365</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>23.3259</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>20.2288</v>
-      </c>
-      <c r="AI3">
-        <v>6.51526</v>
-      </c>
-      <c r="AJ3">
-        <v>7.28793</v>
-      </c>
-      <c r="AK3">
-        <v>6.06222</v>
-      </c>
-      <c r="AL3">
-        <v>6.47889</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>3.12505</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>3.60351</v>
+      <c r="AC3" s="3">
+        <v>27.8281</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>27.537</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>28.565</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>28.2852</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>21.6712</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>21.3957</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>11.2953</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>11.4147</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>10.9252</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>11.0333</v>
+      </c>
+      <c r="AM3">
+        <v>5.69867</v>
+      </c>
+      <c r="AN3">
+        <v>5.77202</v>
       </c>
       <c r="AO3">
-        <v>47.8794</v>
+        <v>49.7203</v>
       </c>
       <c r="AP3">
-        <v>48.3946</v>
+        <v>49.9184</v>
       </c>
       <c r="AQ3">
-        <v>49.9274</v>
+        <v>49.236</v>
       </c>
       <c r="AR3">
-        <v>423.619</v>
+        <v>650.503</v>
       </c>
       <c r="AS3">
-        <v>387.109</v>
+        <v>126.625</v>
       </c>
       <c r="AT3">
-        <v>394.411</v>
+        <v>231.401</v>
       </c>
       <c r="AU3">
-        <v>416.317</v>
+        <v>545.727</v>
       </c>
       <c r="AV3">
-        <v>405.364</v>
+        <v>388.564</v>
       </c>
       <c r="AW3">
-        <v>36.5108</v>
+        <v>523.8770000000001</v>
       </c>
       <c r="AX3">
-        <v>1151.54</v>
+        <v>1114.98</v>
       </c>
       <c r="AY3">
-        <v>558.8720000000001</v>
+        <v>648.773</v>
       </c>
       <c r="AZ3">
-        <v>245.331</v>
+        <v>128.642</v>
       </c>
       <c r="BA3">
-        <v>308.04</v>
+        <v>232.668</v>
       </c>
       <c r="BB3">
-        <v>496.164</v>
+        <v>544.747</v>
       </c>
       <c r="BC3">
-        <v>402.102</v>
+        <v>388.708</v>
       </c>
       <c r="BD3">
-        <v>313.541</v>
+        <v>520.131</v>
       </c>
       <c r="BE3">
-        <v>1154.54</v>
+        <v>1116.32</v>
       </c>
       <c r="BF3">
-        <v>463.491</v>
+        <v>489.715</v>
       </c>
       <c r="BG3">
-        <v>342</v>
+        <v>283.888</v>
       </c>
       <c r="BH3">
-        <v>366.299</v>
+        <v>325.053</v>
       </c>
       <c r="BI3">
-        <v>439.193</v>
+        <v>448.55</v>
       </c>
       <c r="BJ3">
-        <v>402.746</v>
+        <v>386.802</v>
       </c>
       <c r="BK3">
-        <v>121.491</v>
+        <v>205.828</v>
       </c>
       <c r="BL3">
-        <v>1354.79</v>
+        <v>1217.3</v>
       </c>
     </row>
     <row r="4" spans="1:64">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" t="s">
-        <v>96</v>
       </c>
       <c r="S4" t="s">
         <v>97</v>
       </c>
       <c r="T4">
-        <v>73.66510000000001</v>
+        <v>91.21459999999999</v>
       </c>
       <c r="U4">
-        <v>57.3853</v>
+        <v>91.0288</v>
       </c>
       <c r="V4">
-        <v>65.5252</v>
+        <v>91.1217</v>
       </c>
       <c r="W4">
-        <v>64.70440000000001</v>
+        <v>92.508</v>
       </c>
       <c r="X4">
-        <v>76.9376</v>
+        <v>92.2972</v>
       </c>
       <c r="Y4">
-        <v>70.821</v>
+        <v>92.40260000000001</v>
       </c>
       <c r="Z4">
-        <v>169.827</v>
+        <v>193.637</v>
       </c>
       <c r="AA4">
-        <v>170.796</v>
-      </c>
-      <c r="AB4">
-        <v>170.311</v>
-      </c>
-      <c r="AC4">
-        <v>3.66117</v>
-      </c>
-      <c r="AD4">
-        <v>3.0052</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>31.557</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>28.9606</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>23.7017</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>20.2431</v>
-      </c>
-      <c r="AI4">
-        <v>6.25414</v>
-      </c>
-      <c r="AJ4">
-        <v>7.61926</v>
-      </c>
-      <c r="AK4">
-        <v>6.06785</v>
-      </c>
-      <c r="AL4">
-        <v>6.61184</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>3.14836</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>3.68627</v>
+        <v>193.383</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>27.86</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>27.0451</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>28.6238</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>27.8741</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>21.93</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>21.0776</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>12.1838</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>12.5509</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>11.7792</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>12.0961</v>
+      </c>
+      <c r="AM4">
+        <v>6.08602</v>
+      </c>
+      <c r="AN4">
+        <v>6.33214</v>
       </c>
       <c r="AO4">
-        <v>45.9136</v>
+        <v>49.7584</v>
       </c>
       <c r="AP4">
-        <v>47.8372</v>
+        <v>49.9731</v>
       </c>
       <c r="AQ4">
-        <v>50.8613</v>
+        <v>49.2751</v>
       </c>
       <c r="AR4">
-        <v>432.737</v>
+        <v>671.4649999999999</v>
       </c>
       <c r="AS4">
-        <v>394.574</v>
+        <v>105.731</v>
       </c>
       <c r="AT4">
-        <v>402.207</v>
+        <v>218.878</v>
       </c>
       <c r="AU4">
-        <v>425.104</v>
+        <v>558.318</v>
       </c>
       <c r="AV4">
-        <v>413.655</v>
+        <v>388.598</v>
       </c>
       <c r="AW4">
-        <v>38.1624</v>
+        <v>565.7339999999999</v>
       </c>
       <c r="AX4">
-        <v>1152.94</v>
+        <v>1116.33</v>
       </c>
       <c r="AY4">
-        <v>564.7859999999999</v>
+        <v>669.687</v>
       </c>
       <c r="AZ4">
-        <v>245.648</v>
+        <v>107.742</v>
       </c>
       <c r="BA4">
-        <v>309.475</v>
+        <v>220.131</v>
       </c>
       <c r="BB4">
-        <v>500.958</v>
+        <v>557.298</v>
       </c>
       <c r="BC4">
-        <v>405.217</v>
+        <v>388.715</v>
       </c>
       <c r="BD4">
-        <v>319.138</v>
+        <v>561.9450000000001</v>
       </c>
       <c r="BE4">
-        <v>1155.18</v>
+        <v>1117.63</v>
       </c>
       <c r="BF4">
-        <v>467.026</v>
+        <v>498.065</v>
       </c>
       <c r="BG4">
-        <v>342.657</v>
+        <v>275.621</v>
       </c>
       <c r="BH4">
-        <v>367.531</v>
+        <v>320.11</v>
       </c>
       <c r="BI4">
-        <v>442.152</v>
+        <v>453.576</v>
       </c>
       <c r="BJ4">
-        <v>404.842</v>
+        <v>386.843</v>
       </c>
       <c r="BK4">
-        <v>124.369</v>
+        <v>222.444</v>
       </c>
       <c r="BL4">
-        <v>1354.57</v>
+        <v>1218.65</v>
       </c>
     </row>
     <row r="5" spans="1:64">
@@ -1560,37 +1566,37 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
         <v>99</v>
@@ -1605,186 +1611,186 @@
         <v>99</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
         <v>100</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T5">
-        <v>88.3207</v>
+        <v>108.648</v>
       </c>
       <c r="U5">
-        <v>57.6757</v>
+        <v>108.576</v>
       </c>
       <c r="V5">
-        <v>72.9982</v>
+        <v>108.612</v>
       </c>
       <c r="W5">
-        <v>71.0381</v>
+        <v>110.089</v>
       </c>
       <c r="X5">
-        <v>83.2813</v>
+        <v>110.078</v>
       </c>
       <c r="Y5">
-        <v>77.1597</v>
+        <v>110.083</v>
       </c>
       <c r="Z5">
-        <v>176.215</v>
+        <v>210.693</v>
       </c>
       <c r="AA5">
-        <v>176.855</v>
-      </c>
-      <c r="AB5">
-        <v>176.535</v>
-      </c>
-      <c r="AC5">
-        <v>5.9681</v>
-      </c>
-      <c r="AD5">
-        <v>2.97777</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>31.4596</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>29.2817</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>23.5315</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>20.4127</v>
+        <v>210.472</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>27.9778</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>27.8842</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>28.4807</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>28.3927</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>21.8312</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>21.7334</v>
       </c>
       <c r="AI5">
-        <v>4.16306</v>
+        <v>8.45252</v>
       </c>
       <c r="AJ5">
-        <v>8.343680000000001</v>
+        <v>8.4809</v>
       </c>
       <c r="AK5">
-        <v>5.24021</v>
+        <v>8.21583</v>
       </c>
       <c r="AL5">
-        <v>5.62996</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>2.71776</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>3.133</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>30.2597</v>
+        <v>8.24131</v>
+      </c>
+      <c r="AM5">
+        <v>4.26662</v>
+      </c>
+      <c r="AN5">
+        <v>4.28581</v>
+      </c>
+      <c r="AO5">
+        <v>49.1686</v>
       </c>
       <c r="AP5">
-        <v>47.6025</v>
+        <v>49.406</v>
       </c>
       <c r="AQ5">
-        <v>50.2387</v>
+        <v>48.3997</v>
       </c>
       <c r="AR5">
-        <v>431.454</v>
+        <v>528.633</v>
       </c>
       <c r="AS5">
-        <v>390.045</v>
+        <v>134.494</v>
       </c>
       <c r="AT5">
-        <v>398.327</v>
+        <v>213.322</v>
       </c>
       <c r="AU5">
-        <v>423.172</v>
+        <v>449.805</v>
       </c>
       <c r="AV5">
-        <v>410.75</v>
+        <v>331.564</v>
       </c>
       <c r="AW5">
-        <v>41.4093</v>
+        <v>394.139</v>
       </c>
       <c r="AX5">
-        <v>1169.01</v>
+        <v>1133.88</v>
       </c>
       <c r="AY5">
-        <v>495.556</v>
+        <v>526.499</v>
       </c>
       <c r="AZ5">
-        <v>220.798</v>
+        <v>136.512</v>
       </c>
       <c r="BA5">
-        <v>275.75</v>
+        <v>214.509</v>
       </c>
       <c r="BB5">
-        <v>440.605</v>
+        <v>448.502</v>
       </c>
       <c r="BC5">
-        <v>358.177</v>
+        <v>331.506</v>
       </c>
       <c r="BD5">
-        <v>274.758</v>
+        <v>389.988</v>
       </c>
       <c r="BE5">
-        <v>1161.39</v>
+        <v>1135.34</v>
       </c>
       <c r="BF5">
-        <v>411.53</v>
+        <v>407.732</v>
       </c>
       <c r="BG5">
-        <v>304.942</v>
+        <v>252.49</v>
       </c>
       <c r="BH5">
-        <v>326.259</v>
+        <v>283.538</v>
       </c>
       <c r="BI5">
-        <v>390.212</v>
+        <v>376.684</v>
       </c>
       <c r="BJ5">
-        <v>358.236</v>
+        <v>330.111</v>
       </c>
       <c r="BK5">
-        <v>106.588</v>
+        <v>155.242</v>
       </c>
       <c r="BL5">
-        <v>1361.06</v>
+        <v>1235.82</v>
       </c>
     </row>
     <row r="6" spans="1:64">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
         <v>99</v>
@@ -1799,574 +1805,574 @@
         <v>99</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="T6">
-        <v>398.813</v>
+        <v>115.945</v>
       </c>
       <c r="U6">
-        <v>358.946</v>
+        <v>115.715</v>
       </c>
       <c r="V6">
-        <v>378.88</v>
+        <v>115.83</v>
       </c>
       <c r="W6">
-        <v>75.47269999999999</v>
+        <v>117.397</v>
       </c>
       <c r="X6">
-        <v>86.1666</v>
+        <v>117.245</v>
       </c>
       <c r="Y6">
-        <v>80.81960000000001</v>
+        <v>117.321</v>
       </c>
       <c r="Z6">
-        <v>180.403</v>
+        <v>217.796</v>
       </c>
       <c r="AA6">
-        <v>180.53</v>
-      </c>
-      <c r="AB6">
-        <v>180.467</v>
-      </c>
-      <c r="AC6">
-        <v>6.4069</v>
-      </c>
-      <c r="AD6">
-        <v>2.98397</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>31.2905</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>27.9877</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>24.2517</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>20.0613</v>
+        <v>217.62</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>28.2599</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>27.5135</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>28.7036</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>28.0244</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>22.2788</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>21.4783</v>
       </c>
       <c r="AI6">
-        <v>4.22926</v>
+        <v>8.814679999999999</v>
       </c>
       <c r="AJ6">
-        <v>9.08066</v>
+        <v>9.05381</v>
       </c>
       <c r="AK6">
-        <v>5.24581</v>
+        <v>8.58588</v>
       </c>
       <c r="AL6">
-        <v>5.86486</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>2.70333</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>3.268</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>20.6309</v>
+        <v>8.79397</v>
+      </c>
+      <c r="AM6">
+        <v>4.4136</v>
+      </c>
+      <c r="AN6">
+        <v>4.5781</v>
+      </c>
+      <c r="AO6">
+        <v>49.0839</v>
       </c>
       <c r="AP6">
-        <v>47.0325</v>
+        <v>49.3709</v>
       </c>
       <c r="AQ6">
-        <v>50.8487</v>
+        <v>48.3723</v>
       </c>
       <c r="AR6">
-        <v>477.127</v>
+        <v>537.8549999999999</v>
       </c>
       <c r="AS6">
-        <v>431.966</v>
+        <v>122.685</v>
       </c>
       <c r="AT6">
-        <v>440.998</v>
+        <v>205.719</v>
       </c>
       <c r="AU6">
-        <v>468.095</v>
+        <v>454.821</v>
       </c>
       <c r="AV6">
-        <v>454.546</v>
+        <v>330.27</v>
       </c>
       <c r="AW6">
-        <v>45.1607</v>
+        <v>415.17</v>
       </c>
       <c r="AX6">
-        <v>1481.49</v>
+        <v>1141.21</v>
       </c>
       <c r="AY6">
-        <v>500.046</v>
+        <v>535.501</v>
       </c>
       <c r="AZ6">
-        <v>226.472</v>
+        <v>124.758</v>
       </c>
       <c r="BA6">
-        <v>281.187</v>
+        <v>206.907</v>
       </c>
       <c r="BB6">
-        <v>445.331</v>
+        <v>453.353</v>
       </c>
       <c r="BC6">
-        <v>363.259</v>
+        <v>330.13</v>
       </c>
       <c r="BD6">
-        <v>273.573</v>
+        <v>410.743</v>
       </c>
       <c r="BE6">
-        <v>1165.62</v>
+        <v>1142.68</v>
       </c>
       <c r="BF6">
-        <v>417.166</v>
+        <v>410.402</v>
       </c>
       <c r="BG6">
-        <v>307.8989999999999</v>
+        <v>246.519</v>
       </c>
       <c r="BH6">
-        <v>329.752</v>
+        <v>279.295</v>
       </c>
       <c r="BI6">
-        <v>395.312</v>
+        <v>377.625</v>
       </c>
       <c r="BJ6">
-        <v>362.532</v>
+        <v>328.46</v>
       </c>
       <c r="BK6">
-        <v>109.267</v>
+        <v>163.883</v>
       </c>
       <c r="BL6">
-        <v>1364.49</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T7">
-        <v>48.9209</v>
+        <v>67.15940000000001</v>
       </c>
       <c r="U7">
-        <v>57.7563</v>
+        <v>67.3516</v>
       </c>
       <c r="V7">
-        <v>53.3386</v>
+        <v>67.2555</v>
       </c>
       <c r="W7">
-        <v>49.6713</v>
+        <v>68.142</v>
       </c>
       <c r="X7">
-        <v>63.58159999999999</v>
+        <v>68.3485</v>
       </c>
       <c r="Y7">
-        <v>56.6264</v>
+        <v>68.2453</v>
       </c>
       <c r="Z7">
-        <v>155.538</v>
+        <v>170.097</v>
       </c>
       <c r="AA7">
-        <v>156.806</v>
-      </c>
-      <c r="AB7">
-        <v>156.172</v>
-      </c>
-      <c r="AC7">
-        <v>1.57847</v>
-      </c>
-      <c r="AD7">
-        <v>3.07978</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>32.251</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>30.4437</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>23.1562</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>20.4654</v>
-      </c>
-      <c r="AI7">
-        <v>9.145049999999999</v>
-      </c>
-      <c r="AJ7">
-        <v>4.68707</v>
-      </c>
-      <c r="AK7">
-        <v>5.78262</v>
-      </c>
-      <c r="AL7">
-        <v>6.1259</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>3.02342</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>3.42095</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>72.5959</v>
+        <v>170.237</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>26.2506</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>25.9361</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>27.6205</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>27.3596</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>21.2052</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>20.8679</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>14.6724</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>14.8503</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>13.9488</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>14.0819</v>
+      </c>
+      <c r="AM7">
+        <v>7.26454</v>
+      </c>
+      <c r="AN7">
+        <v>7.38195</v>
+      </c>
+      <c r="AO7">
+        <v>50.2939</v>
       </c>
       <c r="AP7">
-        <v>48.4566</v>
+        <v>50.4483</v>
       </c>
       <c r="AQ7">
-        <v>50.5309</v>
+        <v>50.1171</v>
       </c>
       <c r="AR7">
-        <v>344.463</v>
+        <v>713.1729999999999</v>
       </c>
       <c r="AS7">
-        <v>320.405</v>
+        <v>71.24210000000001</v>
       </c>
       <c r="AT7">
-        <v>325.216</v>
+        <v>199.628</v>
       </c>
       <c r="AU7">
-        <v>339.651</v>
+        <v>584.7869999999999</v>
       </c>
       <c r="AV7">
-        <v>332.434</v>
+        <v>392.2069999999999</v>
       </c>
       <c r="AW7">
-        <v>24.0586</v>
+        <v>641.931</v>
       </c>
       <c r="AX7">
-        <v>1127.3</v>
+        <v>1092.17</v>
       </c>
       <c r="AY7">
-        <v>561.299</v>
+        <v>713.092</v>
       </c>
       <c r="AZ7">
-        <v>250.474</v>
+        <v>70.9678</v>
       </c>
       <c r="BA7">
-        <v>312.639</v>
+        <v>199.393</v>
       </c>
       <c r="BB7">
-        <v>499.134</v>
+        <v>584.667</v>
       </c>
       <c r="BC7">
-        <v>405.886</v>
+        <v>392.03</v>
       </c>
       <c r="BD7">
-        <v>310.825</v>
+        <v>642.124</v>
       </c>
       <c r="BE7">
-        <v>1140.41</v>
+        <v>1093.16</v>
       </c>
       <c r="BF7">
-        <v>464.377</v>
+        <v>519.14</v>
       </c>
       <c r="BG7">
-        <v>347.692</v>
+        <v>262.397</v>
       </c>
       <c r="BH7">
-        <v>371.029</v>
+        <v>313.746</v>
       </c>
       <c r="BI7">
-        <v>441.04</v>
+        <v>467.792</v>
       </c>
       <c r="BJ7">
-        <v>406.034</v>
+        <v>390.7689999999999</v>
       </c>
       <c r="BK7">
-        <v>116.685</v>
+        <v>256.743</v>
       </c>
       <c r="BL7">
-        <v>1340.48</v>
+        <v>1194.96</v>
       </c>
     </row>
     <row r="8" spans="1:64">
       <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>112</v>
-      </c>
       <c r="R8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T8">
-        <v>46.6426</v>
+        <v>65.1798</v>
       </c>
       <c r="U8">
-        <v>57.8667</v>
+        <v>65.4053</v>
       </c>
       <c r="V8">
-        <v>52.2547</v>
+        <v>65.29260000000001</v>
       </c>
       <c r="W8">
-        <v>48.0149</v>
+        <v>66.0793</v>
       </c>
       <c r="X8">
-        <v>62.3964</v>
+        <v>66.3198</v>
       </c>
       <c r="Y8">
-        <v>55.2057</v>
+        <v>66.1996</v>
       </c>
       <c r="Z8">
-        <v>153.891</v>
+        <v>168.046</v>
       </c>
       <c r="AA8">
-        <v>155.361</v>
-      </c>
-      <c r="AB8">
-        <v>154.626</v>
-      </c>
-      <c r="AC8">
-        <v>1.56987</v>
-      </c>
-      <c r="AD8">
-        <v>3.05707</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>32.5009</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>30.5419</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>23.2478</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>20.3966</v>
-      </c>
-      <c r="AI8">
-        <v>9.90049</v>
-      </c>
-      <c r="AJ8">
-        <v>5.08412</v>
-      </c>
-      <c r="AK8">
-        <v>6.15001</v>
-      </c>
-      <c r="AL8">
-        <v>6.54447</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>3.20984</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>3.65854</v>
-      </c>
-      <c r="AO8" s="4">
-        <v>74.9449</v>
+        <v>168.366</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>25.6825</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>25.0063</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>27.3251</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>26.7893</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>21.2215</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>20.5719</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>16.1533</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>16.5901</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>15.2202</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>15.5246</v>
+      </c>
+      <c r="AM8">
+        <v>7.86662</v>
+      </c>
+      <c r="AN8">
+        <v>8.115030000000001</v>
+      </c>
+      <c r="AO8">
+        <v>50.3424</v>
       </c>
       <c r="AP8">
-        <v>48.5434</v>
+        <v>50.4851</v>
       </c>
       <c r="AQ8">
-        <v>50.6031</v>
+        <v>50.3204</v>
       </c>
       <c r="AR8">
-        <v>332.383</v>
+        <v>737.857</v>
       </c>
       <c r="AS8">
-        <v>306.479</v>
+        <v>46.42749999999999</v>
       </c>
       <c r="AT8">
-        <v>311.66</v>
+        <v>184.713</v>
       </c>
       <c r="AU8">
-        <v>327.203</v>
+        <v>599.5709999999999</v>
       </c>
       <c r="AV8">
-        <v>319.431</v>
+        <v>392.142</v>
       </c>
       <c r="AW8">
-        <v>25.9042</v>
+        <v>691.429</v>
       </c>
       <c r="AX8">
-        <v>1125.12</v>
+        <v>1090.21</v>
       </c>
       <c r="AY8">
-        <v>571.252</v>
+        <v>738.3539999999999</v>
       </c>
       <c r="AZ8">
-        <v>238.118</v>
+        <v>45.1998</v>
       </c>
       <c r="BA8">
-        <v>304.745</v>
+        <v>183.831</v>
       </c>
       <c r="BB8">
-        <v>504.626</v>
+        <v>599.723</v>
       </c>
       <c r="BC8">
-        <v>404.685</v>
+        <v>391.777</v>
       </c>
       <c r="BD8">
-        <v>333.135</v>
+        <v>693.154</v>
       </c>
       <c r="BE8">
-        <v>1138.97</v>
+        <v>1091.12</v>
       </c>
       <c r="BF8">
-        <v>467.371</v>
+        <v>529.629</v>
       </c>
       <c r="BG8">
-        <v>343.002</v>
+        <v>251.392</v>
       </c>
       <c r="BH8">
-        <v>367.876</v>
+        <v>307.04</v>
       </c>
       <c r="BI8">
-        <v>442.497</v>
+        <v>473.981</v>
       </c>
       <c r="BJ8">
-        <v>405.186</v>
+        <v>390.511</v>
       </c>
       <c r="BK8">
-        <v>124.369</v>
+        <v>278.236</v>
       </c>
       <c r="BL8">
-        <v>1339.1</v>
+        <v>1192.94</v>
       </c>
     </row>
     <row r="9" spans="1:64">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
         <v>99</v>
@@ -2381,186 +2387,186 @@
         <v>99</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9">
-        <v>53.66070000000001</v>
+        <v>76.2038</v>
       </c>
       <c r="U9">
-        <v>57.6924</v>
+        <v>76.2492</v>
       </c>
       <c r="V9">
-        <v>55.6765</v>
+        <v>76.2265</v>
       </c>
       <c r="W9">
-        <v>52.921</v>
+        <v>77.2988</v>
       </c>
       <c r="X9">
-        <v>66.5699</v>
+        <v>77.3599</v>
       </c>
       <c r="Y9">
-        <v>59.7455</v>
+        <v>77.3293</v>
       </c>
       <c r="Z9">
-        <v>158.6</v>
+        <v>179.032</v>
       </c>
       <c r="AA9">
-        <v>159.976</v>
-      </c>
-      <c r="AB9">
-        <v>159.288</v>
-      </c>
-      <c r="AC9">
-        <v>1.6662</v>
-      </c>
-      <c r="AD9">
-        <v>3.10105</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>31.9658</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>30.0724</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>23.1815</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>20.3624</v>
-      </c>
-      <c r="AI9">
-        <v>7.85144</v>
-      </c>
-      <c r="AJ9">
-        <v>4.21859</v>
-      </c>
-      <c r="AK9">
-        <v>5.24947</v>
-      </c>
-      <c r="AL9">
-        <v>5.57999</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>2.73716</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>3.1161</v>
-      </c>
-      <c r="AO9" s="4">
-        <v>67.61239999999999</v>
+        <v>178.973</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>26.7892</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>26.5657</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>27.913</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>27.723</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>21.3222</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>21.1296</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>11.5988</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>11.6964</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>11.111</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>11.1871</v>
+      </c>
+      <c r="AM9">
+        <v>5.80101</v>
+      </c>
+      <c r="AN9">
+        <v>5.85389</v>
+      </c>
+      <c r="AO9">
+        <v>50.1352</v>
       </c>
       <c r="AP9">
-        <v>48.5906</v>
+        <v>50.3246</v>
       </c>
       <c r="AQ9">
-        <v>50.5567</v>
+        <v>49.8452</v>
       </c>
       <c r="AR9">
-        <v>319.911</v>
+        <v>594.418</v>
       </c>
       <c r="AS9">
-        <v>298.107</v>
+        <v>76.5462</v>
       </c>
       <c r="AT9">
-        <v>302.468</v>
+        <v>180.121</v>
       </c>
       <c r="AU9">
-        <v>315.55</v>
+        <v>490.844</v>
       </c>
       <c r="AV9">
-        <v>309.009</v>
+        <v>335.482</v>
       </c>
       <c r="AW9">
-        <v>21.8035</v>
+        <v>517.872</v>
       </c>
       <c r="AX9">
-        <v>1132.15</v>
+        <v>1101.23</v>
       </c>
       <c r="AY9">
-        <v>502.147</v>
+        <v>593.823</v>
       </c>
       <c r="AZ9">
-        <v>222.475</v>
+        <v>76.9234</v>
       </c>
       <c r="BA9">
-        <v>278.409</v>
+        <v>180.303</v>
       </c>
       <c r="BB9">
-        <v>446.213</v>
+        <v>490.443</v>
       </c>
       <c r="BC9">
-        <v>362.311</v>
+        <v>335.373</v>
       </c>
       <c r="BD9">
-        <v>279.673</v>
+        <v>516.9</v>
       </c>
       <c r="BE9">
-        <v>1143.55</v>
+        <v>1102.34</v>
       </c>
       <c r="BF9">
-        <v>415.336</v>
+        <v>437.072</v>
       </c>
       <c r="BG9">
-        <v>309.584</v>
+        <v>230.921</v>
       </c>
       <c r="BH9">
-        <v>330.734</v>
+        <v>272.152</v>
       </c>
       <c r="BI9">
-        <v>394.186</v>
+        <v>395.842</v>
       </c>
       <c r="BJ9">
-        <v>362.46</v>
+        <v>333.997</v>
       </c>
       <c r="BK9">
-        <v>105.752</v>
+        <v>206.151</v>
       </c>
       <c r="BL9">
-        <v>1343.64</v>
+        <v>1203.9</v>
       </c>
     </row>
     <row r="10" spans="1:64">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
         <v>99</v>
@@ -2575,148 +2581,148 @@
         <v>99</v>
       </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T10">
-        <v>52.6582</v>
+        <v>76.94409999999999</v>
       </c>
       <c r="U10">
-        <v>57.6103</v>
+        <v>76.9693</v>
       </c>
       <c r="V10">
-        <v>55.1342</v>
+        <v>76.95670000000001</v>
       </c>
       <c r="W10">
-        <v>52.02520000000001</v>
+        <v>77.9817</v>
       </c>
       <c r="X10">
-        <v>66.15990000000001</v>
+        <v>78.0223</v>
       </c>
       <c r="Y10">
-        <v>59.09249999999999</v>
+        <v>78.00200000000001</v>
       </c>
       <c r="Z10">
-        <v>157.978</v>
+        <v>179.664</v>
       </c>
       <c r="AA10">
-        <v>159.218</v>
-      </c>
-      <c r="AB10">
-        <v>158.598</v>
-      </c>
-      <c r="AC10">
-        <v>1.66949</v>
-      </c>
-      <c r="AD10">
-        <v>3.09942</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>32.562</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>30.4154</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>23.4005</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>20.3203</v>
-      </c>
-      <c r="AI10">
-        <v>8.04688</v>
-      </c>
-      <c r="AJ10">
-        <v>4.33442</v>
-      </c>
-      <c r="AK10">
-        <v>5.39324</v>
-      </c>
-      <c r="AL10">
-        <v>5.77387</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>2.81057</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>3.23661</v>
-      </c>
-      <c r="AO10" s="4">
-        <v>68.5382</v>
+        <v>179.762</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>26.5984</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>25.8378</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>27.8449</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>27.2099</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>21.486</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>20.8187</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>12.5814</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>12.9518</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>12.0124</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>12.2927</v>
+      </c>
+      <c r="AM10">
+        <v>6.22131</v>
+      </c>
+      <c r="AN10">
+        <v>6.42071</v>
+      </c>
+      <c r="AO10">
+        <v>50.1779</v>
       </c>
       <c r="AP10">
-        <v>48.3862</v>
+        <v>50.3718</v>
       </c>
       <c r="AQ10">
-        <v>50.6109</v>
+        <v>50.0637</v>
       </c>
       <c r="AR10">
-        <v>314.964</v>
+        <v>614.2030000000001</v>
       </c>
       <c r="AS10">
-        <v>292.574</v>
+        <v>56.4625</v>
       </c>
       <c r="AT10">
-        <v>297.052</v>
+        <v>168.011</v>
       </c>
       <c r="AU10">
-        <v>310.486</v>
+        <v>502.655</v>
       </c>
       <c r="AV10">
-        <v>303.769</v>
+        <v>335.333</v>
       </c>
       <c r="AW10">
-        <v>22.3903</v>
+        <v>557.741</v>
       </c>
       <c r="AX10">
-        <v>1131.06</v>
+        <v>1102</v>
       </c>
       <c r="AY10">
-        <v>507.671</v>
+        <v>613.799</v>
       </c>
       <c r="AZ10">
-        <v>214.981</v>
+        <v>56.3266</v>
       </c>
       <c r="BA10">
-        <v>273.519</v>
+        <v>167.821</v>
       </c>
       <c r="BB10">
-        <v>449.133</v>
+        <v>502.305</v>
       </c>
       <c r="BC10">
-        <v>361.326</v>
+        <v>335.063</v>
       </c>
       <c r="BD10">
-        <v>292.691</v>
+        <v>557.473</v>
       </c>
       <c r="BE10">
-        <v>1142.93</v>
+        <v>1103.05</v>
       </c>
       <c r="BF10">
-        <v>416.45</v>
+        <v>444.879</v>
       </c>
       <c r="BG10">
-        <v>306.835</v>
+        <v>222.094</v>
       </c>
       <c r="BH10">
-        <v>328.758</v>
+        <v>266.651</v>
       </c>
       <c r="BI10">
-        <v>394.527</v>
+        <v>400.322</v>
       </c>
       <c r="BJ10">
-        <v>361.642</v>
+        <v>333.486</v>
       </c>
       <c r="BK10">
-        <v>109.615</v>
+        <v>222.784</v>
       </c>
       <c r="BL10">
-        <v>1342.96</v>
+        <v>1204.59</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1">
@@ -2915,287 +2921,287 @@
     </row>
     <row r="12" spans="1:64" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T12" s="1">
-        <v>46.6426</v>
+        <v>65.1798</v>
       </c>
       <c r="U12" s="1">
-        <v>57.3853</v>
+        <v>65.4053</v>
       </c>
       <c r="V12" s="1">
-        <v>52.2547</v>
+        <v>65.29260000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>48.0149</v>
+        <v>66.0793</v>
       </c>
       <c r="X12" s="1">
-        <v>62.3964</v>
+        <v>66.3198</v>
       </c>
       <c r="Y12" s="1">
-        <v>55.2057</v>
+        <v>66.1996</v>
       </c>
       <c r="Z12" s="1">
-        <v>153.891</v>
+        <v>168.046</v>
       </c>
       <c r="AA12" s="1">
-        <v>155.361</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>154.626</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>1.56987</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>2.97777</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>31.0322</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>27.9877</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>23.1562</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>20.0613</v>
+        <v>168.366</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>25.6825</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>25.0063</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>27.3251</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>26.7893</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>21.2052</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>20.5719</v>
       </c>
       <c r="AI12" s="1">
-        <v>4.16306</v>
+        <v>8.45252</v>
       </c>
       <c r="AJ12" s="1">
-        <v>4.21859</v>
+        <v>8.4809</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.24021</v>
+        <v>8.21583</v>
       </c>
       <c r="AL12" s="1">
-        <v>5.57999</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>2.70333</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>3.1161</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>20.6309</v>
+        <v>8.24131</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>4.26662</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>4.28581</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>49.0839</v>
       </c>
       <c r="AP12" s="1">
-        <v>47.0325</v>
+        <v>49.3709</v>
       </c>
       <c r="AQ12" s="1">
-        <v>49.9274</v>
+        <v>48.3723</v>
       </c>
       <c r="AR12" s="1">
-        <v>314.964</v>
+        <v>528.633</v>
       </c>
       <c r="AS12" s="1">
-        <v>292.574</v>
+        <v>46.42749999999999</v>
       </c>
       <c r="AT12" s="1">
-        <v>297.052</v>
+        <v>168.011</v>
       </c>
       <c r="AU12" s="1">
-        <v>310.486</v>
+        <v>449.805</v>
       </c>
       <c r="AV12" s="1">
-        <v>303.769</v>
+        <v>330.27</v>
       </c>
       <c r="AW12" s="1">
-        <v>21.8035</v>
+        <v>394.139</v>
       </c>
       <c r="AX12" s="1">
-        <v>1125.12</v>
+        <v>1090.21</v>
       </c>
       <c r="AY12" s="1">
-        <v>495.556</v>
+        <v>526.499</v>
       </c>
       <c r="AZ12" s="1">
-        <v>214.981</v>
+        <v>45.1998</v>
       </c>
       <c r="BA12" s="1">
-        <v>273.519</v>
+        <v>167.821</v>
       </c>
       <c r="BB12" s="1">
-        <v>440.605</v>
+        <v>448.502</v>
       </c>
       <c r="BC12" s="1">
-        <v>358.177</v>
+        <v>330.13</v>
       </c>
       <c r="BD12" s="1">
-        <v>273.573</v>
+        <v>389.988</v>
       </c>
       <c r="BE12" s="1">
-        <v>1138.97</v>
+        <v>1091.12</v>
       </c>
       <c r="BF12" s="1">
-        <v>411.53</v>
+        <v>407.732</v>
       </c>
       <c r="BG12" s="1">
-        <v>304.942</v>
+        <v>222.094</v>
       </c>
       <c r="BH12" s="1">
-        <v>326.259</v>
+        <v>266.651</v>
       </c>
       <c r="BI12" s="1">
-        <v>390.212</v>
+        <v>376.684</v>
       </c>
       <c r="BJ12" s="1">
-        <v>358.236</v>
+        <v>328.46</v>
       </c>
       <c r="BK12" s="1">
-        <v>105.752</v>
+        <v>155.242</v>
       </c>
       <c r="BL12" s="1">
-        <v>1339.1</v>
+        <v>1192.94</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T13" s="1">
-        <v>398.813</v>
+        <v>115.945</v>
       </c>
       <c r="U13" s="1">
-        <v>358.946</v>
+        <v>115.715</v>
       </c>
       <c r="V13" s="1">
-        <v>378.88</v>
+        <v>115.83</v>
       </c>
       <c r="W13" s="1">
-        <v>75.47269999999999</v>
+        <v>117.397</v>
       </c>
       <c r="X13" s="1">
-        <v>86.1666</v>
+        <v>117.245</v>
       </c>
       <c r="Y13" s="1">
-        <v>80.81960000000001</v>
+        <v>117.321</v>
       </c>
       <c r="Z13" s="1">
-        <v>180.403</v>
+        <v>217.796</v>
       </c>
       <c r="AA13" s="1">
-        <v>180.53</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>180.467</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>6.4069</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>3.10105</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>32.562</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>30.5419</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>24.2517</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>20.4654</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>9.90049</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>9.08066</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>6.15001</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>6.61184</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>3.20984</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>3.68627</v>
-      </c>
-      <c r="AO13" s="4">
-        <v>74.9449</v>
+        <v>217.62</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>28.2599</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>27.8842</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>28.7036</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>28.3927</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>22.2788</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>21.7334</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>16.1533</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>16.5901</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>15.2202</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>15.5246</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>7.86662</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>8.115030000000001</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>50.3424</v>
       </c>
       <c r="AP13" s="1">
-        <v>48.5906</v>
+        <v>50.4851</v>
       </c>
       <c r="AQ13" s="1">
-        <v>50.8613</v>
+        <v>50.3204</v>
       </c>
       <c r="AR13" s="1">
-        <v>477.127</v>
+        <v>737.857</v>
       </c>
       <c r="AS13" s="1">
-        <v>431.966</v>
+        <v>134.494</v>
       </c>
       <c r="AT13" s="1">
-        <v>440.998</v>
+        <v>231.401</v>
       </c>
       <c r="AU13" s="1">
-        <v>468.095</v>
+        <v>599.5709999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>454.546</v>
+        <v>392.2069999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>45.1607</v>
+        <v>691.429</v>
       </c>
       <c r="AX13" s="1">
-        <v>1481.49</v>
+        <v>1141.21</v>
       </c>
       <c r="AY13" s="1">
-        <v>571.252</v>
+        <v>738.3539999999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>250.474</v>
+        <v>136.512</v>
       </c>
       <c r="BA13" s="1">
-        <v>312.639</v>
+        <v>232.668</v>
       </c>
       <c r="BB13" s="1">
-        <v>504.626</v>
+        <v>599.723</v>
       </c>
       <c r="BC13" s="1">
-        <v>405.886</v>
+        <v>392.03</v>
       </c>
       <c r="BD13" s="1">
-        <v>333.135</v>
+        <v>693.154</v>
       </c>
       <c r="BE13" s="1">
-        <v>1165.62</v>
+        <v>1142.68</v>
       </c>
       <c r="BF13" s="1">
-        <v>467.371</v>
+        <v>529.629</v>
       </c>
       <c r="BG13" s="1">
-        <v>347.692</v>
+        <v>283.888</v>
       </c>
       <c r="BH13" s="1">
-        <v>371.029</v>
+        <v>325.053</v>
       </c>
       <c r="BI13" s="1">
-        <v>442.497</v>
+        <v>473.981</v>
       </c>
       <c r="BJ13" s="1">
-        <v>406.034</v>
+        <v>390.7689999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>124.369</v>
+        <v>278.236</v>
       </c>
       <c r="BL13" s="1">
-        <v>1364.49</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
       <c r="S14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T14" s="1">
         <v>500.0000000000001</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="15" spans="1:64" s="1" customFormat="1">
       <c r="S15" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="16" spans="1:64" s="1" customFormat="1">
       <c r="S16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC16" s="1">
         <v>20</v>
@@ -3399,7 +3405,7 @@
     </row>
     <row r="17" spans="19:64" s="1" customFormat="1">
       <c r="S17" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC17" s="1">
         <v>0</v>
@@ -3449,422 +3455,422 @@
     </row>
     <row r="18" spans="19:64" s="1" customFormat="1">
       <c r="S18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T18" s="1">
-        <v>99.39093333333332</v>
+        <v>85.82611111111113</v>
       </c>
       <c r="U18" s="1">
-        <v>91.14601111111114</v>
+        <v>85.81753333333333</v>
       </c>
       <c r="V18" s="1">
-        <v>95.26853333333332</v>
+        <v>85.82183333333334</v>
       </c>
       <c r="W18" s="1">
-        <v>59.42423333333333</v>
+        <v>87.0122777777778</v>
       </c>
       <c r="X18" s="1">
-        <v>72.40557777777776</v>
+        <v>87.02387777777777</v>
       </c>
       <c r="Y18" s="1">
-        <v>65.91488888888888</v>
+        <v>87.01803333333335</v>
       </c>
       <c r="Z18" s="1">
-        <v>164.9472222222222</v>
+        <v>188.355</v>
       </c>
       <c r="AA18" s="1">
-        <v>165.9028888888889</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>165.425</v>
+        <v>188.3202222222222</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC18" s="1">
-        <v>3.095301111111111</v>
+        <v>27.18302222222222</v>
       </c>
       <c r="AD18" s="1">
-        <v>3.044488888888889</v>
+        <v>26.67433333333334</v>
       </c>
       <c r="AE18" s="1">
-        <v>31.86537777777778</v>
+        <v>28.16241111111111</v>
       </c>
       <c r="AF18" s="1">
-        <v>29.64231111111111</v>
+        <v>27.71926666666667</v>
       </c>
       <c r="AG18" s="1">
-        <v>23.47265555555556</v>
+        <v>21.61896666666667</v>
       </c>
       <c r="AH18" s="1">
-        <v>20.31175555555556</v>
+        <v>21.12304444444445</v>
       </c>
       <c r="AI18" s="1">
-        <v>7.096674444444444</v>
+        <v>12.02166666666667</v>
       </c>
       <c r="AJ18" s="1">
-        <v>6.179831111111111</v>
+        <v>12.25973444444445</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.65566</v>
+        <v>11.53029</v>
       </c>
       <c r="AL18" s="1">
-        <v>6.080426666666667</v>
+        <v>11.71894222222222</v>
       </c>
       <c r="AM18" s="1">
-        <v>2.938026666666667</v>
+        <v>5.983005555555555</v>
       </c>
       <c r="AN18" s="1">
-        <v>3.394284444444444</v>
+        <v>6.127013333333334</v>
       </c>
       <c r="AO18" s="1">
-        <v>54.44154444444445</v>
+        <v>49.85966666666667</v>
       </c>
       <c r="AP18" s="1">
-        <v>48.11060000000001</v>
+        <v>50.06416666666667</v>
       </c>
       <c r="AQ18" s="1">
-        <v>50.50156666666666</v>
+        <v>49.4948</v>
       </c>
       <c r="AR18" s="1">
-        <v>382.1447777777778</v>
+        <v>633.7707777777778</v>
       </c>
       <c r="AS18" s="1">
-        <v>350.927</v>
+        <v>91.97875555555555</v>
       </c>
       <c r="AT18" s="1">
-        <v>357.1705555555556</v>
+        <v>200.3372222222222</v>
       </c>
       <c r="AU18" s="1">
-        <v>375.9012222222222</v>
+        <v>525.4123333333332</v>
       </c>
       <c r="AV18" s="1">
-        <v>366.5357777777778</v>
+        <v>362.8747777777778</v>
       </c>
       <c r="AW18" s="1">
-        <v>31.2178</v>
+        <v>541.792</v>
       </c>
       <c r="AX18" s="1">
-        <v>1178.686666666667</v>
+        <v>1110.926666666667</v>
       </c>
       <c r="AY18" s="1">
-        <v>533.9544444444444</v>
+        <v>632.6958888888889</v>
       </c>
       <c r="AZ18" s="1">
-        <v>233.571</v>
+        <v>92.81416666666667</v>
       </c>
       <c r="BA18" s="1">
-        <v>293.6477777777778</v>
+        <v>200.7905555555555</v>
       </c>
       <c r="BB18" s="1">
-        <v>473.8778888888889</v>
+        <v>524.7196666666666</v>
       </c>
       <c r="BC18" s="1">
-        <v>383.7627777777778</v>
+        <v>362.7552222222222</v>
       </c>
       <c r="BD18" s="1">
-        <v>300.3836666666666</v>
+        <v>539.8818888888889</v>
       </c>
       <c r="BE18" s="1">
-        <v>1149.957777777778</v>
+        <v>1112.125555555555</v>
       </c>
       <c r="BF18" s="1">
-        <v>441.3354444444444</v>
+        <v>468.738</v>
       </c>
       <c r="BG18" s="1">
-        <v>326.4331111111111</v>
+        <v>253.6491111111111</v>
       </c>
       <c r="BH18" s="1">
-        <v>349.4135555555556</v>
+        <v>296.667</v>
       </c>
       <c r="BI18" s="1">
-        <v>418.3548888888889</v>
+        <v>425.7202222222223</v>
       </c>
       <c r="BJ18" s="1">
-        <v>383.8842222222222</v>
+        <v>361.1936666666666</v>
       </c>
       <c r="BK18" s="1">
-        <v>114.9023333333333</v>
+        <v>215.0887777777778</v>
       </c>
       <c r="BL18" s="1">
-        <v>1349.793333333333</v>
+        <v>1213.334444444444</v>
       </c>
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T19" s="1">
-        <v>106.6516320500223</v>
+        <v>16.46655061966156</v>
       </c>
       <c r="U19" s="1">
-        <v>94.68173379442713</v>
+        <v>16.34065862694103</v>
       </c>
       <c r="V19" s="1">
-        <v>100.479850438594</v>
+        <v>16.40355873908667</v>
       </c>
       <c r="W19" s="1">
-        <v>9.291528152270992</v>
+        <v>16.64906483865471</v>
       </c>
       <c r="X19" s="1">
-        <v>8.197822480225097</v>
+        <v>16.5407172161963</v>
       </c>
       <c r="Y19" s="1">
-        <v>8.743352786538846</v>
+        <v>16.59474443732111</v>
       </c>
       <c r="Z19" s="1">
-        <v>8.94038266366935</v>
+        <v>16.11514716035818</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.565902773262588</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>8.752865613297422</v>
+        <v>15.96653678289397</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC19" s="1">
-        <v>1.812574228122622</v>
+        <v>0.8387161190743041</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.0481512811516289</v>
+        <v>0.8877755609762338</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.5190602379466995</v>
+        <v>0.4686289516461693</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.8227673998895355</v>
+        <v>0.489187803064086</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.3206409487646438</v>
+        <v>0.3358005360329255</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.1144881858156465</v>
+        <v>0.3406773713618562</v>
       </c>
       <c r="AI19" s="1">
-        <v>1.881247508532045</v>
+        <v>2.317654927646574</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1.781357247846238</v>
+        <v>2.400344544282994</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.3610205463220434</v>
+        <v>2.112216143622091</v>
       </c>
       <c r="AL19" s="1">
-        <v>0.3732010855051499</v>
+        <v>2.165152148283645</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.1889767555371119</v>
+        <v>1.097525664656753</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.2073691012615541</v>
+        <v>1.14122829174924</v>
       </c>
       <c r="AO19" s="1">
-        <v>18.30935383829267</v>
+        <v>0.4405237034863541</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.4933956514693753</v>
+        <v>0.4050833275046294</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.2793084356445799</v>
+        <v>0.6829650243200179</v>
       </c>
       <c r="AR19" s="1">
-        <v>56.16978055617091</v>
+        <v>67.91449957569651</v>
       </c>
       <c r="AS19" s="1">
-        <v>47.84884304185884</v>
+        <v>30.11757112580669</v>
       </c>
       <c r="AT19" s="1">
-        <v>49.50777413724729</v>
+        <v>18.87209856892078</v>
       </c>
       <c r="AU19" s="1">
-        <v>54.50073994967158</v>
+        <v>50.78719634142271</v>
       </c>
       <c r="AV19" s="1">
-        <v>52.00137463092848</v>
+        <v>27.22138490549002</v>
       </c>
       <c r="AW19" s="1">
-        <v>8.515103678627629</v>
+        <v>89.86009262675445</v>
       </c>
       <c r="AX19" s="1">
-        <v>107.9186150145871</v>
+        <v>16.55091202589422</v>
       </c>
       <c r="AY19" s="1">
-        <v>30.06878970742147</v>
+        <v>68.58290107833719</v>
       </c>
       <c r="AZ19" s="1">
-        <v>11.9769882784539</v>
+        <v>31.24350849298316</v>
       </c>
       <c r="BA19" s="1">
-        <v>15.21621391643194</v>
+        <v>19.47283542733947</v>
       </c>
       <c r="BB19" s="1">
-        <v>26.22863173643323</v>
+        <v>51.14337337111991</v>
       </c>
       <c r="BC19" s="1">
-        <v>20.58419095529263</v>
+        <v>27.24514417807235</v>
       </c>
       <c r="BD19" s="1">
-        <v>20.00833503540184</v>
+        <v>91.59859235265384</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.038078431192924</v>
+        <v>16.73623355418555</v>
       </c>
       <c r="BF19" s="1">
-        <v>24.01483027034712</v>
+        <v>42.71492610838096</v>
       </c>
       <c r="BG19" s="1">
-        <v>17.48760343433436</v>
+        <v>18.43376216767268</v>
       </c>
       <c r="BH19" s="1">
-        <v>18.76678059829899</v>
+        <v>20.44995822326621</v>
       </c>
       <c r="BI19" s="1">
-        <v>22.6874553807676</v>
+        <v>36.18085228643513</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.71374604125792</v>
+        <v>27.2158666875695</v>
       </c>
       <c r="BK19" s="1">
-        <v>6.988607920513687</v>
+        <v>36.9588681066993</v>
       </c>
       <c r="BL19" s="1">
-        <v>8.717048430135828</v>
+        <v>16.22331662975036</v>
       </c>
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="T20" s="1">
-        <v>107.3051922073599</v>
+        <v>19.18594517039674</v>
       </c>
       <c r="U20" s="1">
-        <v>103.8791853205795</v>
+        <v>19.04116558963596</v>
       </c>
       <c r="V20" s="1">
-        <v>105.4701347054719</v>
+        <v>19.11350305856901</v>
       </c>
       <c r="W20" s="1">
-        <v>15.6359243208932</v>
+        <v>19.13415585002274</v>
       </c>
       <c r="X20" s="1">
-        <v>11.32208696046221</v>
+        <v>19.00710200300923</v>
       </c>
       <c r="Y20" s="1">
-        <v>13.26460976256412</v>
+        <v>19.07046597313098</v>
       </c>
       <c r="Z20" s="1">
-        <v>5.420147452755875</v>
+        <v>8.555731018745549</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.163202901788816</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>5.29113834867609</v>
+        <v>8.478397377873252</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AC20" s="1">
-        <v>58.55889824793065</v>
+        <v>3.085441023510074</v>
       </c>
       <c r="AD20" s="1">
-        <v>1.581588335807726</v>
+        <v>3.328201495730854</v>
       </c>
       <c r="AE20" s="1">
-        <v>1.62891600271151</v>
+        <v>1.664022834540889</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.775651995573077</v>
+        <v>1.764793451957914</v>
       </c>
       <c r="AG20" s="1">
-        <v>1.366019059947198</v>
+        <v>1.553268207544265</v>
       </c>
       <c r="AH20" s="1">
-        <v>0.5636548032616134</v>
+        <v>1.612823247415253</v>
       </c>
       <c r="AI20" s="1">
-        <v>26.50886021698176</v>
+        <v>19.27898179104318</v>
       </c>
       <c r="AJ20" s="1">
-        <v>28.82533868350257</v>
+        <v>19.57909084540344</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.383349535192061</v>
+        <v>18.31884665192368</v>
       </c>
       <c r="AL20" s="1">
-        <v>6.137745029490527</v>
+        <v>18.47566194308854</v>
       </c>
       <c r="AM20" s="1">
-        <v>6.432098036452308</v>
+        <v>18.34405224039345</v>
       </c>
       <c r="AN20" s="1">
-        <v>6.109361329483248</v>
+        <v>18.62617607734775</v>
       </c>
       <c r="AO20" s="1">
-        <v>33.63121679433007</v>
+        <v>0.883527173238932</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.02554458158779</v>
+        <v>0.8091282737246456</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.5530688532657665</v>
+        <v>1.379872278138346</v>
       </c>
       <c r="AR20" s="1">
-        <v>14.69856028984763</v>
+        <v>10.71594051935126</v>
       </c>
       <c r="AS20" s="1">
-        <v>13.63498478084013</v>
+        <v>32.74405154091865</v>
       </c>
       <c r="AT20" s="1">
-        <v>13.86110175298218</v>
+        <v>9.420165838172137</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.49868655054606</v>
+        <v>9.666159912771249</v>
       </c>
       <c r="AV20" s="1">
-        <v>14.1872575021737</v>
+        <v>7.5015918913384</v>
       </c>
       <c r="AW20" s="1">
-        <v>27.27643741271848</v>
+        <v>16.58571788190937</v>
       </c>
       <c r="AX20" s="1">
-        <v>9.155835733662927</v>
+        <v>1.489829394009885</v>
       </c>
       <c r="AY20" s="1">
-        <v>5.631339905543196</v>
+        <v>10.83978927044702</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.127771974454832</v>
+        <v>33.66243496554926</v>
       </c>
       <c r="BA20" s="1">
-        <v>5.181790930475568</v>
+        <v>9.698083345335258</v>
       </c>
       <c r="BB20" s="1">
-        <v>5.534892501089686</v>
+        <v>9.746799409294725</v>
       </c>
       <c r="BC20" s="1">
-        <v>5.363779956588739</v>
+        <v>7.510613909613712</v>
       </c>
       <c r="BD20" s="1">
-        <v>6.660926427003414</v>
+        <v>16.96641325404887</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.7859487196702517</v>
+        <v>1.504887057992753</v>
       </c>
       <c r="BF20" s="1">
-        <v>5.441400769561378</v>
+        <v>9.112750856209857</v>
       </c>
       <c r="BG20" s="1">
-        <v>5.35717819029147</v>
+        <v>7.267426283074086</v>
       </c>
       <c r="BH20" s="1">
-        <v>5.370936616486</v>
+        <v>6.893236599711533</v>
       </c>
       <c r="BI20" s="1">
-        <v>5.423016673959121</v>
+        <v>8.498739406264107</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.395831566442234</v>
+        <v>7.534978932143375</v>
       </c>
       <c r="BK20" s="1">
-        <v>6.08221584172676</v>
+        <v>17.18307597846128</v>
       </c>
       <c r="BL20" s="1">
-        <v>0.6458061552733377</v>
+        <v>1.337085310981888</v>
       </c>
     </row>
     <row r="21" spans="19:64" s="1" customFormat="1"/>

--- a/testout_top_timing_tran_fullfreq_post_termination_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_fullfreq_post_termination_tsmc2ff_meas.xlsx
@@ -438,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,7 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
+        <fgColor rgb="FF0094D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,12 +482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,139 +1045,139 @@
         <v>78</v>
       </c>
       <c r="T2">
-        <v>81.27030000000001</v>
+        <v>84.1546</v>
       </c>
       <c r="U2">
-        <v>81.2574</v>
+        <v>84.0522</v>
       </c>
       <c r="V2">
-        <v>81.26390000000001</v>
+        <v>84.10339999999999</v>
       </c>
       <c r="W2">
-        <v>82.4205</v>
+        <v>87.81610000000001</v>
       </c>
       <c r="X2">
-        <v>82.4267</v>
+        <v>87.7997</v>
       </c>
       <c r="Y2">
-        <v>82.42359999999999</v>
+        <v>87.80789999999999</v>
       </c>
       <c r="Z2">
-        <v>183.917</v>
+        <v>188.156</v>
       </c>
       <c r="AA2">
-        <v>183.935</v>
+        <v>187.864</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC2" s="3">
-        <v>27.4007</v>
+        <v>28.5013</v>
       </c>
       <c r="AD2" s="3">
-        <v>26.7433</v>
+        <v>27.6308</v>
       </c>
       <c r="AE2" s="3">
-        <v>28.3851</v>
+        <v>28.3855</v>
       </c>
       <c r="AF2" s="3">
-        <v>27.8152</v>
+        <v>27.8348</v>
       </c>
       <c r="AG2" s="3">
-        <v>21.6246</v>
+        <v>21.8143</v>
       </c>
       <c r="AH2" s="3">
-        <v>21.0343</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>12.4428</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>12.7487</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>11.9741</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>12.2195</v>
-      </c>
-      <c r="AM2">
-        <v>6.22866</v>
-      </c>
-      <c r="AN2">
-        <v>6.40347</v>
+        <v>20.5006</v>
+      </c>
+      <c r="AI2">
+        <v>7.33073</v>
+      </c>
+      <c r="AJ2">
+        <v>7.5617</v>
+      </c>
+      <c r="AK2">
+        <v>6.99485</v>
+      </c>
+      <c r="AL2">
+        <v>7.13325</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>3.74562</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>3.98565</v>
       </c>
       <c r="AO2">
-        <v>50.0564</v>
+        <v>46.9549</v>
       </c>
       <c r="AP2">
-        <v>50.2793</v>
+        <v>46.8568</v>
       </c>
       <c r="AQ2">
-        <v>49.8237</v>
+        <v>46.5474</v>
       </c>
       <c r="AR2">
-        <v>655.83</v>
+        <v>543.543</v>
       </c>
       <c r="AS2">
-        <v>87.5955</v>
+        <v>195.317</v>
       </c>
       <c r="AT2">
-        <v>201.242</v>
+        <v>264.963</v>
       </c>
       <c r="AU2">
-        <v>542.183</v>
+        <v>473.898</v>
       </c>
       <c r="AV2">
-        <v>371.713</v>
+        <v>369.4299999999999</v>
       </c>
       <c r="AW2">
-        <v>568.235</v>
+        <v>348.226</v>
       </c>
       <c r="AX2">
-        <v>1106.33</v>
+        <v>1109.01</v>
       </c>
       <c r="AY2">
-        <v>654.7349999999999</v>
+        <v>534.7619999999999</v>
       </c>
       <c r="AZ2">
-        <v>88.2559</v>
+        <v>203.842</v>
       </c>
       <c r="BA2">
-        <v>201.552</v>
+        <v>270.026</v>
       </c>
       <c r="BB2">
-        <v>541.439</v>
+        <v>468.578</v>
       </c>
       <c r="BC2">
-        <v>371.495</v>
+        <v>369.302</v>
       </c>
       <c r="BD2">
-        <v>566.4789999999999</v>
+        <v>330.921</v>
       </c>
       <c r="BE2">
-        <v>1107.49</v>
+        <v>1112.69</v>
       </c>
       <c r="BF2">
-        <v>482.008</v>
+        <v>435.982</v>
       </c>
       <c r="BG2">
-        <v>257.52</v>
+        <v>299.802</v>
       </c>
       <c r="BH2">
-        <v>302.418</v>
+        <v>327.038</v>
       </c>
       <c r="BI2">
-        <v>437.11</v>
+        <v>408.746</v>
       </c>
       <c r="BJ2">
-        <v>369.764</v>
+        <v>367.892</v>
       </c>
       <c r="BK2">
-        <v>224.488</v>
+        <v>136.18</v>
       </c>
       <c r="BL2">
-        <v>1208.85</v>
+        <v>1212.93</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -1232,139 +1239,139 @@
         <v>94</v>
       </c>
       <c r="T3">
-        <v>89.87</v>
+        <v>91.9804</v>
       </c>
       <c r="U3">
-        <v>89.80520000000001</v>
+        <v>91.9538</v>
       </c>
       <c r="V3">
-        <v>89.83759999999999</v>
+        <v>91.9671</v>
       </c>
       <c r="W3">
-        <v>91.19420000000001</v>
+        <v>95.5553</v>
       </c>
       <c r="X3">
-        <v>91.11749999999999</v>
+        <v>95.83980000000001</v>
       </c>
       <c r="Y3">
-        <v>91.1559</v>
+        <v>95.69749999999999</v>
       </c>
       <c r="Z3">
-        <v>192.313</v>
+        <v>195.962</v>
       </c>
       <c r="AA3">
-        <v>192.134</v>
+        <v>195.512</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC3" s="3">
-        <v>27.8281</v>
+        <v>28.2326</v>
       </c>
       <c r="AD3" s="3">
-        <v>27.537</v>
+        <v>27.8211</v>
       </c>
       <c r="AE3" s="3">
-        <v>28.565</v>
+        <v>28.1876</v>
       </c>
       <c r="AF3" s="3">
-        <v>28.2852</v>
+        <v>28.0872</v>
       </c>
       <c r="AG3" s="3">
-        <v>21.6712</v>
+        <v>22.7596</v>
       </c>
       <c r="AH3" s="3">
-        <v>21.3957</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>11.2953</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>11.4147</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>10.9252</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>11.0333</v>
-      </c>
-      <c r="AM3">
-        <v>5.69867</v>
-      </c>
-      <c r="AN3">
-        <v>5.77202</v>
+        <v>21.9451</v>
+      </c>
+      <c r="AI3">
+        <v>6.69388</v>
+      </c>
+      <c r="AJ3">
+        <v>6.79291</v>
+      </c>
+      <c r="AK3">
+        <v>6.39526</v>
+      </c>
+      <c r="AL3">
+        <v>6.41812</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>3.27136</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>3.39279</v>
       </c>
       <c r="AO3">
-        <v>49.7203</v>
+        <v>45.7494</v>
       </c>
       <c r="AP3">
-        <v>49.9184</v>
+        <v>45.8019</v>
       </c>
       <c r="AQ3">
-        <v>49.236</v>
+        <v>47.1008</v>
       </c>
       <c r="AR3">
-        <v>650.503</v>
+        <v>543.8960000000001</v>
       </c>
       <c r="AS3">
-        <v>126.625</v>
+        <v>228.919</v>
       </c>
       <c r="AT3">
-        <v>231.401</v>
+        <v>291.915</v>
       </c>
       <c r="AU3">
-        <v>545.727</v>
+        <v>480.901</v>
       </c>
       <c r="AV3">
-        <v>388.564</v>
+        <v>386.408</v>
       </c>
       <c r="AW3">
-        <v>523.8770000000001</v>
+        <v>314.977</v>
       </c>
       <c r="AX3">
-        <v>1114.98</v>
+        <v>1116.86</v>
       </c>
       <c r="AY3">
-        <v>648.773</v>
+        <v>535.924</v>
       </c>
       <c r="AZ3">
-        <v>128.642</v>
+        <v>235.479</v>
       </c>
       <c r="BA3">
-        <v>232.668</v>
+        <v>295.568</v>
       </c>
       <c r="BB3">
-        <v>544.747</v>
+        <v>475.835</v>
       </c>
       <c r="BC3">
-        <v>388.708</v>
+        <v>385.701</v>
       </c>
       <c r="BD3">
-        <v>520.131</v>
+        <v>300.445</v>
       </c>
       <c r="BE3">
-        <v>1116.32</v>
+        <v>1120.45</v>
       </c>
       <c r="BF3">
-        <v>489.715</v>
+        <v>447.356</v>
       </c>
       <c r="BG3">
-        <v>283.888</v>
+        <v>323.264</v>
       </c>
       <c r="BH3">
-        <v>325.053</v>
+        <v>348.082</v>
       </c>
       <c r="BI3">
-        <v>448.55</v>
+        <v>422.537</v>
       </c>
       <c r="BJ3">
-        <v>386.802</v>
+        <v>385.31</v>
       </c>
       <c r="BK3">
-        <v>205.828</v>
+        <v>124.092</v>
       </c>
       <c r="BL3">
-        <v>1217.3</v>
+        <v>1320.77</v>
       </c>
     </row>
     <row r="4" spans="1:64">
@@ -1426,139 +1433,139 @@
         <v>97</v>
       </c>
       <c r="T4">
-        <v>91.21459999999999</v>
+        <v>93.46250000000001</v>
       </c>
       <c r="U4">
-        <v>91.0288</v>
+        <v>93.32020000000001</v>
       </c>
       <c r="V4">
-        <v>91.1217</v>
+        <v>93.39139999999999</v>
       </c>
       <c r="W4">
-        <v>92.508</v>
+        <v>96.8391</v>
       </c>
       <c r="X4">
-        <v>92.2972</v>
+        <v>97.39160000000001</v>
       </c>
       <c r="Y4">
-        <v>92.40260000000001</v>
+        <v>97.1153</v>
       </c>
       <c r="Z4">
-        <v>193.637</v>
+        <v>197.377</v>
       </c>
       <c r="AA4">
-        <v>193.383</v>
+        <v>196.9</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC4" s="3">
-        <v>27.86</v>
+        <v>28.694</v>
       </c>
       <c r="AD4" s="3">
-        <v>27.0451</v>
+        <v>27.6615</v>
       </c>
       <c r="AE4" s="3">
-        <v>28.6238</v>
+        <v>28.7155</v>
       </c>
       <c r="AF4" s="3">
-        <v>27.8741</v>
+        <v>28.2026</v>
       </c>
       <c r="AG4" s="3">
-        <v>21.93</v>
+        <v>23.0356</v>
       </c>
       <c r="AH4" s="3">
-        <v>21.0776</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>12.1838</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>12.5509</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>11.7792</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>12.0961</v>
-      </c>
-      <c r="AM4">
-        <v>6.08602</v>
-      </c>
-      <c r="AN4">
-        <v>6.33214</v>
+        <v>21.6646</v>
+      </c>
+      <c r="AI4">
+        <v>7.14669</v>
+      </c>
+      <c r="AJ4">
+        <v>7.41344</v>
+      </c>
+      <c r="AK4">
+        <v>6.85548</v>
+      </c>
+      <c r="AL4">
+        <v>6.98014</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>3.49173</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>3.71271</v>
       </c>
       <c r="AO4">
-        <v>49.7584</v>
+        <v>45.6964</v>
       </c>
       <c r="AP4">
-        <v>49.9731</v>
+        <v>46.1574</v>
       </c>
       <c r="AQ4">
-        <v>49.2751</v>
+        <v>47.3336</v>
       </c>
       <c r="AR4">
-        <v>671.4649999999999</v>
+        <v>556.144</v>
       </c>
       <c r="AS4">
-        <v>105.731</v>
+        <v>214.366</v>
       </c>
       <c r="AT4">
-        <v>218.878</v>
+        <v>282.722</v>
       </c>
       <c r="AU4">
-        <v>558.318</v>
+        <v>487.789</v>
       </c>
       <c r="AV4">
-        <v>388.598</v>
+        <v>385.255</v>
       </c>
       <c r="AW4">
-        <v>565.7339999999999</v>
+        <v>341.778</v>
       </c>
       <c r="AX4">
-        <v>1116.33</v>
+        <v>1118.4</v>
       </c>
       <c r="AY4">
-        <v>669.687</v>
+        <v>547.252</v>
       </c>
       <c r="AZ4">
-        <v>107.742</v>
+        <v>219.155</v>
       </c>
       <c r="BA4">
-        <v>220.131</v>
+        <v>284.774</v>
       </c>
       <c r="BB4">
-        <v>557.298</v>
+        <v>481.632</v>
       </c>
       <c r="BC4">
-        <v>388.715</v>
+        <v>383.203</v>
       </c>
       <c r="BD4">
-        <v>561.9450000000001</v>
+        <v>328.097</v>
       </c>
       <c r="BE4">
-        <v>1117.63</v>
+        <v>1121.8</v>
       </c>
       <c r="BF4">
-        <v>498.065</v>
+        <v>451.142</v>
       </c>
       <c r="BG4">
-        <v>275.621</v>
+        <v>317.085</v>
       </c>
       <c r="BH4">
-        <v>320.11</v>
+        <v>343.896</v>
       </c>
       <c r="BI4">
-        <v>453.576</v>
+        <v>424.33</v>
       </c>
       <c r="BJ4">
-        <v>386.843</v>
+        <v>384.113</v>
       </c>
       <c r="BK4">
-        <v>222.444</v>
+        <v>134.057</v>
       </c>
       <c r="BL4">
-        <v>1218.65</v>
+        <v>1322.16</v>
       </c>
     </row>
     <row r="5" spans="1:64">
@@ -1620,139 +1627,139 @@
         <v>101</v>
       </c>
       <c r="T5">
-        <v>108.648</v>
+        <v>110.011</v>
       </c>
       <c r="U5">
-        <v>108.576</v>
+        <v>110.096</v>
       </c>
       <c r="V5">
-        <v>108.612</v>
+        <v>110.053</v>
       </c>
       <c r="W5">
-        <v>110.089</v>
+        <v>113.209</v>
       </c>
       <c r="X5">
-        <v>110.078</v>
+        <v>114.403</v>
       </c>
       <c r="Y5">
-        <v>110.083</v>
+        <v>113.806</v>
       </c>
       <c r="Z5">
-        <v>210.693</v>
+        <v>213.703</v>
       </c>
       <c r="AA5">
-        <v>210.472</v>
+        <v>213.433</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC5" s="3">
-        <v>27.9778</v>
+        <v>27.8593</v>
       </c>
       <c r="AD5" s="3">
-        <v>27.8842</v>
+        <v>27.6274</v>
       </c>
       <c r="AE5" s="3">
-        <v>28.4807</v>
+        <v>28.169</v>
       </c>
       <c r="AF5" s="3">
-        <v>28.3927</v>
+        <v>28.3595</v>
       </c>
       <c r="AG5" s="3">
-        <v>21.8312</v>
+        <v>22.7722</v>
       </c>
       <c r="AH5" s="3">
-        <v>21.7334</v>
+        <v>23.324</v>
       </c>
       <c r="AI5">
-        <v>8.45252</v>
+        <v>4.95569</v>
       </c>
       <c r="AJ5">
-        <v>8.4809</v>
+        <v>4.99729</v>
       </c>
       <c r="AK5">
-        <v>8.21583</v>
+        <v>4.75463</v>
       </c>
       <c r="AL5">
-        <v>8.24131</v>
-      </c>
-      <c r="AM5">
-        <v>4.26662</v>
-      </c>
-      <c r="AN5">
-        <v>4.28581</v>
-      </c>
-      <c r="AO5">
-        <v>49.1686</v>
-      </c>
-      <c r="AP5">
-        <v>49.406</v>
+        <v>4.72269</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>2.43548</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>2.37786</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>43.3071</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>44.0635</v>
       </c>
       <c r="AQ5">
-        <v>48.3997</v>
+        <v>49.9326</v>
       </c>
       <c r="AR5">
-        <v>528.633</v>
+        <v>444.876</v>
       </c>
       <c r="AS5">
-        <v>134.494</v>
+        <v>214.773</v>
       </c>
       <c r="AT5">
-        <v>213.322</v>
+        <v>260.793</v>
       </c>
       <c r="AU5">
-        <v>449.805</v>
+        <v>398.856</v>
       </c>
       <c r="AV5">
-        <v>331.564</v>
+        <v>329.825</v>
       </c>
       <c r="AW5">
-        <v>394.139</v>
+        <v>230.104</v>
       </c>
       <c r="AX5">
-        <v>1133.88</v>
+        <v>1135.02</v>
       </c>
       <c r="AY5">
-        <v>526.499</v>
+        <v>439.156</v>
       </c>
       <c r="AZ5">
-        <v>136.512</v>
+        <v>215.934</v>
       </c>
       <c r="BA5">
-        <v>214.509</v>
+        <v>260.578</v>
       </c>
       <c r="BB5">
-        <v>448.502</v>
+        <v>394.5119999999999</v>
       </c>
       <c r="BC5">
-        <v>331.506</v>
+        <v>327.545</v>
       </c>
       <c r="BD5">
-        <v>389.988</v>
+        <v>223.222</v>
       </c>
       <c r="BE5">
-        <v>1135.34</v>
+        <v>1138.24</v>
       </c>
       <c r="BF5">
-        <v>407.732</v>
+        <v>375.057</v>
       </c>
       <c r="BG5">
-        <v>252.49</v>
+        <v>282.621</v>
       </c>
       <c r="BH5">
-        <v>283.538</v>
+        <v>301.108</v>
       </c>
       <c r="BI5">
-        <v>376.684</v>
+        <v>356.57</v>
       </c>
       <c r="BJ5">
-        <v>330.111</v>
+        <v>328.839</v>
       </c>
       <c r="BK5">
-        <v>155.242</v>
+        <v>92.4353</v>
       </c>
       <c r="BL5">
-        <v>1235.82</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -1814,139 +1821,139 @@
         <v>103</v>
       </c>
       <c r="T6">
-        <v>115.945</v>
+        <v>117.185</v>
       </c>
       <c r="U6">
-        <v>115.715</v>
+        <v>117.206</v>
       </c>
       <c r="V6">
-        <v>115.83</v>
+        <v>117.195</v>
       </c>
       <c r="W6">
-        <v>117.397</v>
+        <v>120.363</v>
       </c>
       <c r="X6">
-        <v>117.245</v>
+        <v>121.536</v>
       </c>
       <c r="Y6">
-        <v>117.321</v>
+        <v>120.95</v>
       </c>
       <c r="Z6">
-        <v>217.796</v>
+        <v>220.656</v>
       </c>
       <c r="AA6">
-        <v>217.62</v>
+        <v>220.595</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC6" s="3">
-        <v>28.2599</v>
+        <v>28.2911</v>
       </c>
       <c r="AD6" s="3">
-        <v>27.5135</v>
+        <v>27.3096</v>
       </c>
       <c r="AE6" s="3">
-        <v>28.7036</v>
+        <v>28.5638</v>
       </c>
       <c r="AF6" s="3">
-        <v>28.0244</v>
+        <v>28.0494</v>
       </c>
       <c r="AG6" s="3">
-        <v>22.2788</v>
+        <v>23.3223</v>
       </c>
       <c r="AH6" s="3">
-        <v>21.4783</v>
+        <v>23.123</v>
       </c>
       <c r="AI6">
-        <v>8.814679999999999</v>
+        <v>5.0856</v>
       </c>
       <c r="AJ6">
-        <v>9.05381</v>
+        <v>5.26838</v>
       </c>
       <c r="AK6">
-        <v>8.58588</v>
+        <v>4.88944</v>
       </c>
       <c r="AL6">
-        <v>8.79397</v>
-      </c>
-      <c r="AM6">
-        <v>4.4136</v>
-      </c>
-      <c r="AN6">
-        <v>4.5781</v>
-      </c>
-      <c r="AO6">
-        <v>49.0839</v>
-      </c>
-      <c r="AP6">
-        <v>49.3709</v>
+        <v>4.97911</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>2.48808</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>2.50952</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>42.5814</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>43.3747</v>
       </c>
       <c r="AQ6">
-        <v>48.3723</v>
+        <v>49.8724</v>
       </c>
       <c r="AR6">
-        <v>537.8549999999999</v>
+        <v>447.091</v>
       </c>
       <c r="AS6">
-        <v>122.685</v>
+        <v>207.296</v>
       </c>
       <c r="AT6">
-        <v>205.719</v>
+        <v>255.255</v>
       </c>
       <c r="AU6">
-        <v>454.821</v>
+        <v>399.132</v>
       </c>
       <c r="AV6">
-        <v>330.27</v>
+        <v>327.193</v>
       </c>
       <c r="AW6">
-        <v>415.17</v>
+        <v>239.796</v>
       </c>
       <c r="AX6">
-        <v>1141.21</v>
+        <v>1142.28</v>
       </c>
       <c r="AY6">
-        <v>535.501</v>
+        <v>441.187</v>
       </c>
       <c r="AZ6">
-        <v>124.758</v>
+        <v>208.418</v>
       </c>
       <c r="BA6">
-        <v>206.907</v>
+        <v>254.972</v>
       </c>
       <c r="BB6">
-        <v>453.353</v>
+        <v>394.633</v>
       </c>
       <c r="BC6">
-        <v>330.13</v>
+        <v>324.802</v>
       </c>
       <c r="BD6">
-        <v>410.743</v>
+        <v>232.768</v>
       </c>
       <c r="BE6">
-        <v>1142.68</v>
+        <v>1145.5</v>
       </c>
       <c r="BF6">
-        <v>410.402</v>
+        <v>374.376</v>
       </c>
       <c r="BG6">
-        <v>246.519</v>
+        <v>277.663</v>
       </c>
       <c r="BH6">
-        <v>279.295</v>
+        <v>297.005</v>
       </c>
       <c r="BI6">
-        <v>377.625</v>
+        <v>355.033</v>
       </c>
       <c r="BJ6">
-        <v>328.46</v>
+        <v>326.019</v>
       </c>
       <c r="BK6">
-        <v>163.883</v>
+        <v>96.7128</v>
       </c>
       <c r="BL6">
-        <v>1243</v>
+        <v>1446.15</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -2008,139 +2015,139 @@
         <v>115</v>
       </c>
       <c r="T7">
-        <v>67.15940000000001</v>
+        <v>70.83029999999999</v>
       </c>
       <c r="U7">
-        <v>67.3516</v>
+        <v>70.87769999999999</v>
       </c>
       <c r="V7">
-        <v>67.2555</v>
+        <v>70.854</v>
       </c>
       <c r="W7">
-        <v>68.142</v>
+        <v>74.48100000000001</v>
       </c>
       <c r="X7">
-        <v>68.3485</v>
+        <v>74.54060000000001</v>
       </c>
       <c r="Y7">
-        <v>68.2453</v>
+        <v>74.5108</v>
       </c>
       <c r="Z7">
-        <v>170.097</v>
+        <v>175.078</v>
       </c>
       <c r="AA7">
-        <v>170.237</v>
+        <v>174.869</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC7" s="3">
-        <v>26.2506</v>
+        <v>27.8138</v>
       </c>
       <c r="AD7" s="3">
-        <v>25.9361</v>
+        <v>27.2674</v>
       </c>
       <c r="AE7" s="3">
-        <v>27.6205</v>
+        <v>27.9834</v>
       </c>
       <c r="AF7" s="3">
-        <v>27.3596</v>
+        <v>27.6775</v>
       </c>
       <c r="AG7" s="3">
-        <v>21.2052</v>
+        <v>21.5988</v>
       </c>
       <c r="AH7" s="3">
-        <v>20.8679</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>14.6724</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>14.8503</v>
-      </c>
-      <c r="AK7" s="4">
-        <v>13.9488</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>14.0819</v>
+        <v>20.6098</v>
+      </c>
+      <c r="AI7">
+        <v>8.749129999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>8.92445</v>
+      </c>
+      <c r="AK7">
+        <v>8.309850000000001</v>
+      </c>
+      <c r="AL7">
+        <v>8.40169</v>
       </c>
       <c r="AM7">
-        <v>7.26454</v>
+        <v>4.42008</v>
       </c>
       <c r="AN7">
-        <v>7.38195</v>
+        <v>4.63219</v>
       </c>
       <c r="AO7">
-        <v>50.2939</v>
+        <v>48.4063</v>
       </c>
       <c r="AP7">
-        <v>50.4483</v>
+        <v>48.2955</v>
       </c>
       <c r="AQ7">
-        <v>50.1171</v>
+        <v>48.2813</v>
       </c>
       <c r="AR7">
-        <v>713.1729999999999</v>
+        <v>594.17</v>
       </c>
       <c r="AS7">
-        <v>71.24210000000001</v>
+        <v>188.593</v>
       </c>
       <c r="AT7">
-        <v>199.628</v>
+        <v>269.708</v>
       </c>
       <c r="AU7">
-        <v>584.7869999999999</v>
+        <v>513.0550000000001</v>
       </c>
       <c r="AV7">
-        <v>392.2069999999999</v>
+        <v>391.382</v>
       </c>
       <c r="AW7">
-        <v>641.931</v>
+        <v>405.577</v>
       </c>
       <c r="AX7">
-        <v>1092.17</v>
+        <v>1095.69</v>
       </c>
       <c r="AY7">
-        <v>713.092</v>
+        <v>585.1769999999999</v>
       </c>
       <c r="AZ7">
-        <v>70.9678</v>
+        <v>197.614</v>
       </c>
       <c r="BA7">
-        <v>199.393</v>
+        <v>275.127</v>
       </c>
       <c r="BB7">
-        <v>584.667</v>
+        <v>507.665</v>
       </c>
       <c r="BC7">
-        <v>392.03</v>
+        <v>391.396</v>
       </c>
       <c r="BD7">
-        <v>642.124</v>
+        <v>387.563</v>
       </c>
       <c r="BE7">
-        <v>1093.16</v>
+        <v>1099.35</v>
       </c>
       <c r="BF7">
-        <v>519.14</v>
+        <v>469.421</v>
       </c>
       <c r="BG7">
-        <v>262.397</v>
+        <v>310.307</v>
       </c>
       <c r="BH7">
-        <v>313.746</v>
+        <v>342.129</v>
       </c>
       <c r="BI7">
-        <v>467.792</v>
+        <v>437.598</v>
       </c>
       <c r="BJ7">
-        <v>390.7689999999999</v>
+        <v>389.864</v>
       </c>
       <c r="BK7">
-        <v>256.743</v>
+        <v>159.114</v>
       </c>
       <c r="BL7">
-        <v>1194.96</v>
+        <v>1199.85</v>
       </c>
     </row>
     <row r="8" spans="1:64">
@@ -2202,139 +2209,139 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>65.1798</v>
+        <v>69.2615</v>
       </c>
       <c r="U8">
-        <v>65.4053</v>
+        <v>69.2282</v>
       </c>
       <c r="V8">
-        <v>65.29260000000001</v>
+        <v>69.2449</v>
       </c>
       <c r="W8">
-        <v>66.0793</v>
+        <v>72.89000000000001</v>
       </c>
       <c r="X8">
-        <v>66.3198</v>
+        <v>72.86969999999999</v>
       </c>
       <c r="Y8">
-        <v>66.1996</v>
+        <v>72.87990000000001</v>
       </c>
       <c r="Z8">
-        <v>168.046</v>
+        <v>173.438</v>
       </c>
       <c r="AA8">
-        <v>168.366</v>
+        <v>173.346</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC8" s="3">
-        <v>25.6825</v>
+        <v>28.114</v>
       </c>
       <c r="AD8" s="3">
-        <v>25.0063</v>
+        <v>27.034</v>
       </c>
       <c r="AE8" s="3">
-        <v>27.3251</v>
+        <v>28.2059</v>
       </c>
       <c r="AF8" s="3">
-        <v>26.7893</v>
+        <v>27.4642</v>
       </c>
       <c r="AG8" s="3">
-        <v>21.2215</v>
+        <v>21.7828</v>
       </c>
       <c r="AH8" s="3">
-        <v>20.5719</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>16.1533</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>16.5901</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>15.2202</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>15.5246</v>
+        <v>20.3841</v>
+      </c>
+      <c r="AI8">
+        <v>9.58183</v>
+      </c>
+      <c r="AJ8">
+        <v>9.964639999999999</v>
+      </c>
+      <c r="AK8">
+        <v>9.110329999999999</v>
+      </c>
+      <c r="AL8">
+        <v>9.356350000000001</v>
       </c>
       <c r="AM8">
-        <v>7.86662</v>
+        <v>4.81667</v>
       </c>
       <c r="AN8">
-        <v>8.115030000000001</v>
+        <v>5.14717</v>
       </c>
       <c r="AO8">
-        <v>50.3424</v>
+        <v>48.5214</v>
       </c>
       <c r="AP8">
-        <v>50.4851</v>
+        <v>48.4394</v>
       </c>
       <c r="AQ8">
-        <v>50.3204</v>
+        <v>48.6453</v>
       </c>
       <c r="AR8">
-        <v>737.857</v>
+        <v>615.228</v>
       </c>
       <c r="AS8">
-        <v>46.42749999999999</v>
+        <v>166.256</v>
       </c>
       <c r="AT8">
-        <v>184.713</v>
+        <v>256.05</v>
       </c>
       <c r="AU8">
-        <v>599.5709999999999</v>
+        <v>525.434</v>
       </c>
       <c r="AV8">
-        <v>392.142</v>
+        <v>390.742</v>
       </c>
       <c r="AW8">
-        <v>691.429</v>
+        <v>448.973</v>
       </c>
       <c r="AX8">
-        <v>1090.21</v>
+        <v>1094.15</v>
       </c>
       <c r="AY8">
-        <v>738.3539999999999</v>
+        <v>604.8670000000001</v>
       </c>
       <c r="AZ8">
-        <v>45.1998</v>
+        <v>176.593</v>
       </c>
       <c r="BA8">
-        <v>183.831</v>
+        <v>262.248</v>
       </c>
       <c r="BB8">
-        <v>599.723</v>
+        <v>519.212</v>
       </c>
       <c r="BC8">
-        <v>391.777</v>
+        <v>390.73</v>
       </c>
       <c r="BD8">
-        <v>693.154</v>
+        <v>428.275</v>
       </c>
       <c r="BE8">
-        <v>1091.12</v>
+        <v>1097.79</v>
       </c>
       <c r="BF8">
-        <v>529.629</v>
+        <v>476.234</v>
       </c>
       <c r="BG8">
-        <v>251.392</v>
+        <v>301.367</v>
       </c>
       <c r="BH8">
-        <v>307.04</v>
+        <v>336.34</v>
       </c>
       <c r="BI8">
-        <v>473.981</v>
+        <v>441.261</v>
       </c>
       <c r="BJ8">
-        <v>390.511</v>
+        <v>388.8</v>
       </c>
       <c r="BK8">
-        <v>278.236</v>
+        <v>174.867</v>
       </c>
       <c r="BL8">
-        <v>1192.94</v>
+        <v>1198.26</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -2396,139 +2403,139 @@
         <v>78</v>
       </c>
       <c r="T9">
-        <v>76.2038</v>
+        <v>79.40089999999999</v>
       </c>
       <c r="U9">
-        <v>76.2492</v>
+        <v>79.372</v>
       </c>
       <c r="V9">
-        <v>76.2265</v>
+        <v>79.38639999999999</v>
       </c>
       <c r="W9">
-        <v>77.2988</v>
+        <v>83.0625</v>
       </c>
       <c r="X9">
-        <v>77.3599</v>
+        <v>83.08800000000001</v>
       </c>
       <c r="Y9">
-        <v>77.3293</v>
+        <v>83.0752</v>
       </c>
       <c r="Z9">
-        <v>179.032</v>
+        <v>183.545</v>
       </c>
       <c r="AA9">
-        <v>178.973</v>
+        <v>183.197</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC9" s="3">
-        <v>26.7892</v>
+        <v>27.8941</v>
       </c>
       <c r="AD9" s="3">
-        <v>26.5657</v>
+        <v>27.5425</v>
       </c>
       <c r="AE9" s="3">
-        <v>27.913</v>
+        <v>27.9607</v>
       </c>
       <c r="AF9" s="3">
-        <v>27.723</v>
+        <v>27.843</v>
       </c>
       <c r="AG9" s="3">
-        <v>21.3222</v>
+        <v>21.5624</v>
       </c>
       <c r="AH9" s="3">
-        <v>21.1296</v>
-      </c>
-      <c r="AI9" s="4">
-        <v>11.5988</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>11.6964</v>
-      </c>
-      <c r="AK9" s="4">
-        <v>11.111</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>11.1871</v>
-      </c>
-      <c r="AM9">
-        <v>5.80101</v>
-      </c>
-      <c r="AN9">
-        <v>5.85389</v>
+        <v>20.7057</v>
+      </c>
+      <c r="AI9">
+        <v>6.85431</v>
+      </c>
+      <c r="AJ9">
+        <v>6.94181</v>
+      </c>
+      <c r="AK9">
+        <v>6.52225</v>
+      </c>
+      <c r="AL9">
+        <v>6.54983</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>3.48975</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>3.63415</v>
       </c>
       <c r="AO9">
-        <v>50.1352</v>
+        <v>47.6053</v>
       </c>
       <c r="AP9">
-        <v>50.3246</v>
+        <v>47.4994</v>
       </c>
       <c r="AQ9">
-        <v>49.8452</v>
+        <v>47.2185</v>
       </c>
       <c r="AR9">
-        <v>594.418</v>
+        <v>493.579</v>
       </c>
       <c r="AS9">
-        <v>76.5462</v>
+        <v>174.921</v>
       </c>
       <c r="AT9">
-        <v>180.121</v>
+        <v>238.653</v>
       </c>
       <c r="AU9">
-        <v>490.844</v>
+        <v>429.847</v>
       </c>
       <c r="AV9">
-        <v>335.482</v>
+        <v>334.25</v>
       </c>
       <c r="AW9">
-        <v>517.872</v>
+        <v>318.658</v>
       </c>
       <c r="AX9">
-        <v>1101.23</v>
+        <v>1104.25</v>
       </c>
       <c r="AY9">
-        <v>593.823</v>
+        <v>486.151</v>
       </c>
       <c r="AZ9">
-        <v>76.9234</v>
+        <v>182.205</v>
       </c>
       <c r="BA9">
-        <v>180.303</v>
+        <v>242.995</v>
       </c>
       <c r="BB9">
-        <v>490.443</v>
+        <v>425.362</v>
       </c>
       <c r="BC9">
-        <v>335.373</v>
+        <v>334.1779999999999</v>
       </c>
       <c r="BD9">
-        <v>516.9</v>
+        <v>303.945</v>
       </c>
       <c r="BE9">
-        <v>1102.34</v>
+        <v>1107.92</v>
       </c>
       <c r="BF9">
-        <v>437.072</v>
+        <v>395.676</v>
       </c>
       <c r="BG9">
-        <v>230.921</v>
+        <v>270.263</v>
       </c>
       <c r="BH9">
-        <v>272.152</v>
+        <v>295.346</v>
       </c>
       <c r="BI9">
-        <v>395.842</v>
+        <v>370.593</v>
       </c>
       <c r="BJ9">
-        <v>333.997</v>
+        <v>332.969</v>
       </c>
       <c r="BK9">
-        <v>206.151</v>
+        <v>125.413</v>
       </c>
       <c r="BL9">
-        <v>1203.9</v>
+        <v>1208.27</v>
       </c>
     </row>
     <row r="10" spans="1:64">
@@ -2590,139 +2597,139 @@
         <v>115</v>
       </c>
       <c r="T10">
-        <v>76.94409999999999</v>
+        <v>80.44210000000001</v>
       </c>
       <c r="U10">
-        <v>76.9693</v>
+        <v>80.2968</v>
       </c>
       <c r="V10">
-        <v>76.95670000000001</v>
+        <v>80.3695</v>
       </c>
       <c r="W10">
-        <v>77.9817</v>
+        <v>84.0964</v>
       </c>
       <c r="X10">
-        <v>78.0223</v>
+        <v>84.0057</v>
       </c>
       <c r="Y10">
-        <v>78.00200000000001</v>
+        <v>84.051</v>
       </c>
       <c r="Z10">
-        <v>179.664</v>
+        <v>184.463</v>
       </c>
       <c r="AA10">
-        <v>179.762</v>
+        <v>184.234</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC10" s="3">
-        <v>26.5984</v>
+        <v>28.416</v>
       </c>
       <c r="AD10" s="3">
-        <v>25.8378</v>
+        <v>27.3854</v>
       </c>
       <c r="AE10" s="3">
-        <v>27.8449</v>
+        <v>28.3492</v>
       </c>
       <c r="AF10" s="3">
-        <v>27.2099</v>
+        <v>27.662</v>
       </c>
       <c r="AG10" s="3">
-        <v>21.486</v>
+        <v>21.833</v>
       </c>
       <c r="AH10" s="3">
-        <v>20.8187</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>12.5814</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>12.9518</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>12.0124</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>12.2927</v>
-      </c>
-      <c r="AM10">
-        <v>6.22131</v>
+        <v>20.4208</v>
+      </c>
+      <c r="AI10">
+        <v>7.368</v>
+      </c>
+      <c r="AJ10">
+        <v>7.64527</v>
+      </c>
+      <c r="AK10">
+        <v>7.0252</v>
+      </c>
+      <c r="AL10">
+        <v>7.19971</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>3.74342</v>
       </c>
       <c r="AN10">
-        <v>6.42071</v>
+        <v>4.0023</v>
       </c>
       <c r="AO10">
-        <v>50.1779</v>
+        <v>47.5514</v>
       </c>
       <c r="AP10">
-        <v>50.3718</v>
+        <v>47.4657</v>
       </c>
       <c r="AQ10">
-        <v>50.0637</v>
+        <v>47.4482</v>
       </c>
       <c r="AR10">
-        <v>614.2030000000001</v>
+        <v>507.559</v>
       </c>
       <c r="AS10">
-        <v>56.4625</v>
+        <v>158.611</v>
       </c>
       <c r="AT10">
-        <v>168.011</v>
+        <v>228.401</v>
       </c>
       <c r="AU10">
-        <v>502.655</v>
+        <v>437.769</v>
       </c>
       <c r="AV10">
-        <v>335.333</v>
+        <v>333.085</v>
       </c>
       <c r="AW10">
-        <v>557.741</v>
+        <v>348.948</v>
       </c>
       <c r="AX10">
-        <v>1102</v>
+        <v>1105.33</v>
       </c>
       <c r="AY10">
-        <v>613.799</v>
+        <v>498.98</v>
       </c>
       <c r="AZ10">
-        <v>56.3266</v>
+        <v>167.049</v>
       </c>
       <c r="BA10">
-        <v>167.821</v>
+        <v>233.435</v>
       </c>
       <c r="BB10">
-        <v>502.305</v>
+        <v>432.594</v>
       </c>
       <c r="BC10">
-        <v>335.063</v>
+        <v>333.015</v>
       </c>
       <c r="BD10">
-        <v>557.473</v>
+        <v>331.931</v>
       </c>
       <c r="BE10">
-        <v>1103.05</v>
+        <v>1108.99</v>
       </c>
       <c r="BF10">
-        <v>444.879</v>
+        <v>399.513</v>
       </c>
       <c r="BG10">
-        <v>222.094</v>
+        <v>263.296</v>
       </c>
       <c r="BH10">
-        <v>266.651</v>
+        <v>290.539</v>
       </c>
       <c r="BI10">
-        <v>400.322</v>
+        <v>372.27</v>
       </c>
       <c r="BJ10">
-        <v>333.486</v>
+        <v>331.404</v>
       </c>
       <c r="BK10">
-        <v>222.784</v>
+        <v>136.217</v>
       </c>
       <c r="BL10">
-        <v>1204.59</v>
+        <v>1209.23</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1">
@@ -2924,139 +2931,139 @@
         <v>120</v>
       </c>
       <c r="T12" s="1">
-        <v>65.1798</v>
+        <v>69.2615</v>
       </c>
       <c r="U12" s="1">
-        <v>65.4053</v>
+        <v>69.2282</v>
       </c>
       <c r="V12" s="1">
-        <v>65.29260000000001</v>
+        <v>69.2449</v>
       </c>
       <c r="W12" s="1">
-        <v>66.0793</v>
+        <v>72.89000000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>66.3198</v>
+        <v>72.86969999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>66.1996</v>
+        <v>72.87990000000001</v>
       </c>
       <c r="Z12" s="1">
-        <v>168.046</v>
+        <v>173.438</v>
       </c>
       <c r="AA12" s="1">
-        <v>168.366</v>
+        <v>173.346</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC12" s="3">
-        <v>25.6825</v>
+        <v>27.8138</v>
       </c>
       <c r="AD12" s="3">
-        <v>25.0063</v>
+        <v>27.034</v>
       </c>
       <c r="AE12" s="3">
-        <v>27.3251</v>
+        <v>27.9607</v>
       </c>
       <c r="AF12" s="3">
-        <v>26.7893</v>
+        <v>27.4642</v>
       </c>
       <c r="AG12" s="3">
-        <v>21.2052</v>
+        <v>21.5624</v>
       </c>
       <c r="AH12" s="3">
-        <v>20.5719</v>
+        <v>20.3841</v>
       </c>
       <c r="AI12" s="1">
-        <v>8.45252</v>
+        <v>4.95569</v>
       </c>
       <c r="AJ12" s="1">
-        <v>8.4809</v>
+        <v>4.99729</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.21583</v>
+        <v>4.75463</v>
       </c>
       <c r="AL12" s="1">
-        <v>8.24131</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>4.26662</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>4.28581</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>49.0839</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>49.3709</v>
+        <v>4.72269</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>2.43548</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>2.37786</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>42.5814</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>43.3747</v>
       </c>
       <c r="AQ12" s="1">
-        <v>48.3723</v>
+        <v>46.5474</v>
       </c>
       <c r="AR12" s="1">
-        <v>528.633</v>
+        <v>444.876</v>
       </c>
       <c r="AS12" s="1">
-        <v>46.42749999999999</v>
+        <v>158.611</v>
       </c>
       <c r="AT12" s="1">
-        <v>168.011</v>
+        <v>228.401</v>
       </c>
       <c r="AU12" s="1">
-        <v>449.805</v>
+        <v>398.856</v>
       </c>
       <c r="AV12" s="1">
-        <v>330.27</v>
+        <v>327.193</v>
       </c>
       <c r="AW12" s="1">
-        <v>394.139</v>
+        <v>230.104</v>
       </c>
       <c r="AX12" s="1">
-        <v>1090.21</v>
+        <v>1094.15</v>
       </c>
       <c r="AY12" s="1">
-        <v>526.499</v>
+        <v>439.156</v>
       </c>
       <c r="AZ12" s="1">
-        <v>45.1998</v>
+        <v>167.049</v>
       </c>
       <c r="BA12" s="1">
-        <v>167.821</v>
+        <v>233.435</v>
       </c>
       <c r="BB12" s="1">
-        <v>448.502</v>
+        <v>394.5119999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>330.13</v>
+        <v>324.802</v>
       </c>
       <c r="BD12" s="1">
-        <v>389.988</v>
+        <v>223.222</v>
       </c>
       <c r="BE12" s="1">
-        <v>1091.12</v>
+        <v>1097.79</v>
       </c>
       <c r="BF12" s="1">
-        <v>407.732</v>
+        <v>374.376</v>
       </c>
       <c r="BG12" s="1">
-        <v>222.094</v>
+        <v>263.296</v>
       </c>
       <c r="BH12" s="1">
-        <v>266.651</v>
+        <v>290.539</v>
       </c>
       <c r="BI12" s="1">
-        <v>376.684</v>
+        <v>355.033</v>
       </c>
       <c r="BJ12" s="1">
-        <v>328.46</v>
+        <v>326.019</v>
       </c>
       <c r="BK12" s="1">
-        <v>155.242</v>
+        <v>92.4353</v>
       </c>
       <c r="BL12" s="1">
-        <v>1192.94</v>
+        <v>1198.26</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
@@ -3064,139 +3071,139 @@
         <v>121</v>
       </c>
       <c r="T13" s="1">
-        <v>115.945</v>
+        <v>117.185</v>
       </c>
       <c r="U13" s="1">
-        <v>115.715</v>
+        <v>117.206</v>
       </c>
       <c r="V13" s="1">
-        <v>115.83</v>
+        <v>117.195</v>
       </c>
       <c r="W13" s="1">
-        <v>117.397</v>
+        <v>120.363</v>
       </c>
       <c r="X13" s="1">
-        <v>117.245</v>
+        <v>121.536</v>
       </c>
       <c r="Y13" s="1">
-        <v>117.321</v>
+        <v>120.95</v>
       </c>
       <c r="Z13" s="1">
-        <v>217.796</v>
+        <v>220.656</v>
       </c>
       <c r="AA13" s="1">
-        <v>217.62</v>
+        <v>220.595</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC13" s="3">
-        <v>28.2599</v>
+        <v>28.694</v>
       </c>
       <c r="AD13" s="3">
-        <v>27.8842</v>
+        <v>27.8211</v>
       </c>
       <c r="AE13" s="3">
-        <v>28.7036</v>
+        <v>28.7155</v>
       </c>
       <c r="AF13" s="3">
-        <v>28.3927</v>
+        <v>28.3595</v>
       </c>
       <c r="AG13" s="3">
-        <v>22.2788</v>
+        <v>23.3223</v>
       </c>
       <c r="AH13" s="3">
-        <v>21.7334</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>16.1533</v>
-      </c>
-      <c r="AJ13" s="4">
-        <v>16.5901</v>
-      </c>
-      <c r="AK13" s="4">
-        <v>15.2202</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>15.5246</v>
+        <v>23.324</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>9.58183</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>9.964639999999999</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>9.110329999999999</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>9.356350000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>7.86662</v>
+        <v>4.81667</v>
       </c>
       <c r="AN13" s="1">
-        <v>8.115030000000001</v>
+        <v>5.14717</v>
       </c>
       <c r="AO13" s="1">
-        <v>50.3424</v>
+        <v>48.5214</v>
       </c>
       <c r="AP13" s="1">
-        <v>50.4851</v>
+        <v>48.4394</v>
       </c>
       <c r="AQ13" s="1">
-        <v>50.3204</v>
+        <v>49.9326</v>
       </c>
       <c r="AR13" s="1">
-        <v>737.857</v>
+        <v>615.228</v>
       </c>
       <c r="AS13" s="1">
-        <v>134.494</v>
+        <v>228.919</v>
       </c>
       <c r="AT13" s="1">
-        <v>231.401</v>
+        <v>291.915</v>
       </c>
       <c r="AU13" s="1">
-        <v>599.5709999999999</v>
+        <v>525.434</v>
       </c>
       <c r="AV13" s="1">
-        <v>392.2069999999999</v>
+        <v>391.382</v>
       </c>
       <c r="AW13" s="1">
-        <v>691.429</v>
+        <v>448.973</v>
       </c>
       <c r="AX13" s="1">
-        <v>1141.21</v>
+        <v>1142.28</v>
       </c>
       <c r="AY13" s="1">
-        <v>738.3539999999999</v>
+        <v>604.8670000000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>136.512</v>
+        <v>235.479</v>
       </c>
       <c r="BA13" s="1">
-        <v>232.668</v>
+        <v>295.568</v>
       </c>
       <c r="BB13" s="1">
-        <v>599.723</v>
+        <v>519.212</v>
       </c>
       <c r="BC13" s="1">
-        <v>392.03</v>
+        <v>391.396</v>
       </c>
       <c r="BD13" s="1">
-        <v>693.154</v>
+        <v>428.275</v>
       </c>
       <c r="BE13" s="1">
-        <v>1142.68</v>
+        <v>1145.5</v>
       </c>
       <c r="BF13" s="1">
-        <v>529.629</v>
+        <v>476.234</v>
       </c>
       <c r="BG13" s="1">
-        <v>283.888</v>
+        <v>323.264</v>
       </c>
       <c r="BH13" s="1">
-        <v>325.053</v>
+        <v>348.082</v>
       </c>
       <c r="BI13" s="1">
-        <v>473.981</v>
+        <v>441.261</v>
       </c>
       <c r="BJ13" s="1">
-        <v>390.7689999999999</v>
+        <v>389.864</v>
       </c>
       <c r="BK13" s="1">
-        <v>278.236</v>
+        <v>174.867</v>
       </c>
       <c r="BL13" s="1">
-        <v>1243</v>
+        <v>1446.15</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
@@ -3458,139 +3465,139 @@
         <v>126</v>
       </c>
       <c r="T18" s="1">
-        <v>85.82611111111113</v>
+        <v>88.52536666666666</v>
       </c>
       <c r="U18" s="1">
-        <v>85.81753333333333</v>
+        <v>88.4892111111111</v>
       </c>
       <c r="V18" s="1">
-        <v>85.82183333333334</v>
+        <v>88.50718888888889</v>
       </c>
       <c r="W18" s="1">
-        <v>87.0122777777778</v>
+        <v>92.03471111111111</v>
       </c>
       <c r="X18" s="1">
-        <v>87.02387777777777</v>
+        <v>92.38601111111112</v>
       </c>
       <c r="Y18" s="1">
-        <v>87.01803333333335</v>
+        <v>92.21040000000001</v>
       </c>
       <c r="Z18" s="1">
-        <v>188.355</v>
+        <v>192.4864444444445</v>
       </c>
       <c r="AA18" s="1">
-        <v>188.3202222222222</v>
+        <v>192.2166666666666</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC18" s="1">
-        <v>27.18302222222222</v>
+        <v>28.20180000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>26.67433333333334</v>
+        <v>27.47552222222222</v>
       </c>
       <c r="AE18" s="1">
-        <v>28.16241111111111</v>
+        <v>28.28006666666666</v>
       </c>
       <c r="AF18" s="1">
-        <v>27.71926666666667</v>
+        <v>27.90891111111111</v>
       </c>
       <c r="AG18" s="1">
-        <v>21.61896666666667</v>
+        <v>22.27566666666667</v>
       </c>
       <c r="AH18" s="1">
-        <v>21.12304444444445</v>
+        <v>21.40863333333333</v>
       </c>
       <c r="AI18" s="1">
-        <v>12.02166666666667</v>
+        <v>7.085095555555555</v>
       </c>
       <c r="AJ18" s="1">
-        <v>12.25973444444445</v>
+        <v>7.278876666666666</v>
       </c>
       <c r="AK18" s="1">
-        <v>11.53029</v>
+        <v>6.761921111111111</v>
       </c>
       <c r="AL18" s="1">
-        <v>11.71894222222222</v>
+        <v>6.860098888888889</v>
       </c>
       <c r="AM18" s="1">
-        <v>5.983005555555555</v>
+        <v>3.544687777777778</v>
       </c>
       <c r="AN18" s="1">
-        <v>6.127013333333334</v>
+        <v>3.710482222222222</v>
       </c>
       <c r="AO18" s="1">
-        <v>49.85966666666667</v>
+        <v>46.26373333333333</v>
       </c>
       <c r="AP18" s="1">
-        <v>50.06416666666667</v>
+        <v>46.43936666666666</v>
       </c>
       <c r="AQ18" s="1">
-        <v>49.4948</v>
+        <v>48.04223333333334</v>
       </c>
       <c r="AR18" s="1">
-        <v>633.7707777777778</v>
+        <v>527.3428888888889</v>
       </c>
       <c r="AS18" s="1">
-        <v>91.97875555555555</v>
+        <v>194.3391111111111</v>
       </c>
       <c r="AT18" s="1">
-        <v>200.3372222222222</v>
+        <v>260.94</v>
       </c>
       <c r="AU18" s="1">
-        <v>525.4123333333332</v>
+        <v>460.7423333333334</v>
       </c>
       <c r="AV18" s="1">
-        <v>362.8747777777778</v>
+        <v>360.8411111111111</v>
       </c>
       <c r="AW18" s="1">
-        <v>541.792</v>
+        <v>333.0041111111111</v>
       </c>
       <c r="AX18" s="1">
-        <v>1110.926666666667</v>
+        <v>1113.443333333333</v>
       </c>
       <c r="AY18" s="1">
-        <v>632.6958888888889</v>
+        <v>519.2728888888888</v>
       </c>
       <c r="AZ18" s="1">
-        <v>92.81416666666667</v>
+        <v>200.6987777777778</v>
       </c>
       <c r="BA18" s="1">
-        <v>200.7905555555555</v>
+        <v>264.4136666666666</v>
       </c>
       <c r="BB18" s="1">
-        <v>524.7196666666666</v>
+        <v>455.5581111111111</v>
       </c>
       <c r="BC18" s="1">
-        <v>362.7552222222222</v>
+        <v>359.9857777777777</v>
       </c>
       <c r="BD18" s="1">
-        <v>539.8818888888889</v>
+        <v>318.5741111111112</v>
       </c>
       <c r="BE18" s="1">
-        <v>1112.125555555555</v>
+        <v>1116.97</v>
       </c>
       <c r="BF18" s="1">
-        <v>468.738</v>
+        <v>424.973</v>
       </c>
       <c r="BG18" s="1">
-        <v>253.6491111111111</v>
+        <v>293.9631111111111</v>
       </c>
       <c r="BH18" s="1">
-        <v>296.667</v>
+        <v>320.1647777777778</v>
       </c>
       <c r="BI18" s="1">
-        <v>425.7202222222223</v>
+        <v>398.7708888888888</v>
       </c>
       <c r="BJ18" s="1">
-        <v>361.1936666666666</v>
+        <v>359.4677777777777</v>
       </c>
       <c r="BK18" s="1">
-        <v>215.0887777777778</v>
+        <v>131.0097888888889</v>
       </c>
       <c r="BL18" s="1">
-        <v>1213.334444444444</v>
+        <v>1284.068888888889</v>
       </c>
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
@@ -3598,139 +3605,139 @@
         <v>127</v>
       </c>
       <c r="T19" s="1">
-        <v>16.46655061966156</v>
+        <v>15.53215374605567</v>
       </c>
       <c r="U19" s="1">
-        <v>16.34065862694103</v>
+        <v>15.55608919179913</v>
       </c>
       <c r="V19" s="1">
-        <v>16.40355873908667</v>
+        <v>15.54389470724363</v>
       </c>
       <c r="W19" s="1">
-        <v>16.64906483865471</v>
+        <v>15.35609156208734</v>
       </c>
       <c r="X19" s="1">
-        <v>16.5407172161963</v>
+        <v>15.8061739042723</v>
       </c>
       <c r="Y19" s="1">
-        <v>16.59474443732111</v>
+        <v>15.58099348565424</v>
       </c>
       <c r="Z19" s="1">
-        <v>16.11514716035818</v>
+        <v>15.30663662243793</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.96653678289397</v>
+        <v>15.30911890925725</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.8387161190743041</v>
+        <v>0.2900199686611634</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.8877755609762338</v>
+        <v>0.2308401889609044</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.4686289516461693</v>
+        <v>0.2362661305486765</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.489187803064086</v>
+        <v>0.2714013978693411</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.3358005360329255</v>
+        <v>0.6474141024105043</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.3406773713618562</v>
+        <v>1.102686401475958</v>
       </c>
       <c r="AI19" s="1">
-        <v>2.317654927646574</v>
+        <v>1.409709216636231</v>
       </c>
       <c r="AJ19" s="1">
-        <v>2.400344544282994</v>
+        <v>1.481406568261694</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.112216143622091</v>
+        <v>1.323745476915529</v>
       </c>
       <c r="AL19" s="1">
-        <v>2.165152148283645</v>
+        <v>1.382846418253504</v>
       </c>
       <c r="AM19" s="1">
-        <v>1.097525664656753</v>
+        <v>0.7372178345762423</v>
       </c>
       <c r="AN19" s="1">
-        <v>1.14122829174924</v>
+        <v>0.8432374178232864</v>
       </c>
       <c r="AO19" s="1">
-        <v>0.4405237034863541</v>
+        <v>2.014142055014437</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.4050833275046294</v>
+        <v>1.677280828537004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.6829650243200179</v>
+        <v>1.154615629164576</v>
       </c>
       <c r="AR19" s="1">
-        <v>67.91449957569651</v>
+        <v>56.10324263641975</v>
       </c>
       <c r="AS19" s="1">
-        <v>30.11757112580669</v>
+        <v>22.75098515788539</v>
       </c>
       <c r="AT19" s="1">
-        <v>18.87209856892078</v>
+        <v>18.67475517019344</v>
       </c>
       <c r="AU19" s="1">
-        <v>50.78719634142271</v>
+        <v>43.89462066257222</v>
       </c>
       <c r="AV19" s="1">
-        <v>27.22138490549002</v>
+        <v>27.32919737994693</v>
       </c>
       <c r="AW19" s="1">
-        <v>89.86009262675445</v>
+        <v>65.90015553420265</v>
       </c>
       <c r="AX19" s="1">
-        <v>16.55091202589422</v>
+        <v>15.60185031761726</v>
       </c>
       <c r="AY19" s="1">
-        <v>68.58290107833719</v>
+        <v>54.76686876904166</v>
       </c>
       <c r="AZ19" s="1">
-        <v>31.24350849298316</v>
+        <v>20.86146358867776</v>
       </c>
       <c r="BA19" s="1">
-        <v>19.47283542733947</v>
+        <v>18.43424966378254</v>
       </c>
       <c r="BB19" s="1">
-        <v>51.14337337111991</v>
+        <v>43.33989081523561</v>
       </c>
       <c r="BC19" s="1">
-        <v>27.24514417807235</v>
+        <v>27.69412261665233</v>
       </c>
       <c r="BD19" s="1">
-        <v>91.59859235265384</v>
+        <v>61.65556542500072</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.73623355418555</v>
+        <v>15.43463349455086</v>
       </c>
       <c r="BF19" s="1">
-        <v>42.71492610838096</v>
+        <v>37.22083859285758</v>
       </c>
       <c r="BG19" s="1">
-        <v>18.43376216767268</v>
+        <v>20.12654634746218</v>
       </c>
       <c r="BH19" s="1">
-        <v>20.44995822326621</v>
+        <v>22.42776747584603</v>
       </c>
       <c r="BI19" s="1">
-        <v>36.18085228643513</v>
+        <v>33.03325196910411</v>
       </c>
       <c r="BJ19" s="1">
-        <v>27.2158666875695</v>
+        <v>27.23802110521972</v>
       </c>
       <c r="BK19" s="1">
-        <v>36.9588681066993</v>
+        <v>24.76531571804246</v>
       </c>
       <c r="BL19" s="1">
-        <v>16.22331662975036</v>
+        <v>96.57173447114555</v>
       </c>
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
@@ -3738,139 +3745,139 @@
         <v>128</v>
       </c>
       <c r="T20" s="1">
-        <v>19.18594517039674</v>
+        <v>17.54542718195162</v>
       </c>
       <c r="U20" s="1">
-        <v>19.04116558963596</v>
+        <v>17.57964501713796</v>
       </c>
       <c r="V20" s="1">
-        <v>19.11350305856901</v>
+        <v>17.56229624099495</v>
       </c>
       <c r="W20" s="1">
-        <v>19.13415585002274</v>
+        <v>16.68510866899808</v>
       </c>
       <c r="X20" s="1">
-        <v>19.00710200300923</v>
+        <v>17.10883900514168</v>
       </c>
       <c r="Y20" s="1">
-        <v>19.07046597313098</v>
+        <v>16.89721927857838</v>
       </c>
       <c r="Z20" s="1">
-        <v>8.555731018745549</v>
+        <v>7.95205951599139</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.478397377873252</v>
+        <v>7.964511701685902</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC20" s="1">
-        <v>3.085441023510074</v>
+        <v>1.028373964290092</v>
       </c>
       <c r="AD20" s="1">
-        <v>3.328201495730854</v>
+        <v>0.8401667021790059</v>
       </c>
       <c r="AE20" s="1">
-        <v>1.664022834540889</v>
+        <v>0.8354511088446628</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.764793451957914</v>
+        <v>0.9724542702108168</v>
       </c>
       <c r="AG20" s="1">
-        <v>1.553268207544265</v>
+        <v>2.90637363226168</v>
       </c>
       <c r="AH20" s="1">
-        <v>1.612823247415253</v>
+        <v>5.150662278656858</v>
       </c>
       <c r="AI20" s="1">
-        <v>19.27898179104318</v>
+        <v>19.8968271575512</v>
       </c>
       <c r="AJ20" s="1">
-        <v>19.57909084540344</v>
+        <v>20.35213173820815</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.31884665192368</v>
+        <v>19.57647028357615</v>
       </c>
       <c r="AL20" s="1">
-        <v>18.47566194308854</v>
+        <v>20.15782047243169</v>
       </c>
       <c r="AM20" s="1">
-        <v>18.34405224039345</v>
+        <v>20.79782143854758</v>
       </c>
       <c r="AN20" s="1">
-        <v>18.62617607734775</v>
+        <v>22.72581749005843</v>
       </c>
       <c r="AO20" s="1">
-        <v>0.883527173238932</v>
+        <v>4.353608993252677</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.8091282737246456</v>
+        <v>3.611765079778587</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1.379872278138346</v>
+        <v>2.403334626751136</v>
       </c>
       <c r="AR20" s="1">
-        <v>10.71594051935126</v>
+        <v>10.63885449458307</v>
       </c>
       <c r="AS20" s="1">
-        <v>32.74405154091865</v>
+        <v>11.70684841965639</v>
       </c>
       <c r="AT20" s="1">
-        <v>9.420165838172137</v>
+        <v>7.156723833139202</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.666159912771249</v>
+        <v>9.526934576427507</v>
       </c>
       <c r="AV20" s="1">
-        <v>7.5015918913384</v>
+        <v>7.573748261608599</v>
       </c>
       <c r="AW20" s="1">
-        <v>16.58571788190937</v>
+        <v>19.7895921808047</v>
       </c>
       <c r="AX20" s="1">
-        <v>1.489829394009885</v>
+        <v>1.40122535656213</v>
       </c>
       <c r="AY20" s="1">
-        <v>10.83978927044702</v>
+        <v>10.54683769187888</v>
       </c>
       <c r="AZ20" s="1">
-        <v>33.66243496554926</v>
+        <v>10.39441486373996</v>
       </c>
       <c r="BA20" s="1">
-        <v>9.698083345335258</v>
+        <v>6.971746164324288</v>
       </c>
       <c r="BB20" s="1">
-        <v>9.746799409294725</v>
+        <v>9.513581200327913</v>
       </c>
       <c r="BC20" s="1">
-        <v>7.510613909613712</v>
+        <v>7.69311576352001</v>
       </c>
       <c r="BD20" s="1">
-        <v>16.96641325404887</v>
+        <v>19.3536019640644</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.504887057992753</v>
+        <v>1.381830621641661</v>
       </c>
       <c r="BF20" s="1">
-        <v>9.112750856209857</v>
+        <v>8.758400790840261</v>
       </c>
       <c r="BG20" s="1">
-        <v>7.267426283074086</v>
+        <v>6.846623126074765</v>
       </c>
       <c r="BH20" s="1">
-        <v>6.893236599711533</v>
+        <v>7.005070211506168</v>
       </c>
       <c r="BI20" s="1">
-        <v>8.498739406264107</v>
+        <v>8.28376716794598</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.534978932143375</v>
+        <v>7.577319245025128</v>
       </c>
       <c r="BK20" s="1">
-        <v>17.18307597846128</v>
+        <v>18.90340861402826</v>
       </c>
       <c r="BL20" s="1">
-        <v>1.337085310981888</v>
+        <v>7.520759618645503</v>
       </c>
     </row>
     <row r="21" spans="19:64" s="1" customFormat="1"/>
